--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Round 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -461,14 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aaron Xu</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>180000</v>
+        <v>-30000</v>
       </c>
       <c r="D2" t="n">
-        <v>180000</v>
+        <v>197000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>167000</v>
       </c>
     </row>
     <row r="3">
@@ -477,14 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yong Jun Loo</t>
+          <t>Aaron Xu</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>157000</v>
+        <v>180000</v>
       </c>
       <c r="D3" t="n">
-        <v>157000</v>
+        <v>-30000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>150000</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicholas Yeoh</t>
+          <t>Yong Jun Loo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>124500</v>
+        <v>157000</v>
       </c>
       <c r="D4" t="n">
-        <v>124500</v>
+        <v>-30000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>127000</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gaurang Dev Singh</t>
+          <t>Planning Saw</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91800</v>
+        <v>-30000</v>
       </c>
       <c r="D5" t="n">
-        <v>91800</v>
+        <v>143200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>113200</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liang Heng</t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51700</v>
+        <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>51700</v>
+        <v>126700</v>
+      </c>
+      <c r="E6" t="n">
+        <v>96700</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Granth Saxena</t>
+          <t>Nicholas Yeoh</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48600</v>
+        <v>124500</v>
       </c>
       <c r="D7" t="n">
-        <v>48600</v>
+        <v>-30000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94500</v>
       </c>
     </row>
     <row r="8">
@@ -557,14 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thomas Ross</t>
+          <t>Hoang Tu Vu</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38100</v>
+        <v>19300</v>
       </c>
       <c r="D8" t="n">
-        <v>38100</v>
+        <v>57200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76500</v>
       </c>
     </row>
     <row r="9">
@@ -573,14 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gia Huy Nguyen</t>
+          <t>Gaurang Dev Singh</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35600</v>
+        <v>91800</v>
       </c>
       <c r="D9" t="n">
-        <v>35600</v>
+        <v>-30000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>61800</v>
       </c>
     </row>
     <row r="10">
@@ -589,14 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sicong Chen</t>
+          <t>Techin Kno</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23500</v>
+        <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>23500</v>
+        <v>81400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51400</v>
       </c>
     </row>
     <row r="11">
@@ -605,14 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Yuen </t>
+          <t>Zhonghong Ge</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23000</v>
+        <v>2100</v>
       </c>
       <c r="D11" t="n">
-        <v>23000</v>
+        <v>35000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37100</v>
       </c>
     </row>
     <row r="12">
@@ -621,14 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hoang Tu Vu</t>
+          <t>Pouria Rafatmah</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19300</v>
+        <v>-30000</v>
       </c>
       <c r="D12" t="n">
-        <v>19300</v>
+        <v>65700</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35700</v>
       </c>
     </row>
     <row r="13">
@@ -637,14 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mohammed Affan Syed</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13800</v>
+        <v>-30000</v>
       </c>
       <c r="D13" t="n">
-        <v>13800</v>
+        <v>64900</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34900</v>
       </c>
     </row>
     <row r="14">
@@ -653,14 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Leo Morrison</t>
+          <t>Mohammed Affan Syed</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8100</v>
+        <v>13800</v>
       </c>
       <c r="D14" t="n">
-        <v>8100</v>
+        <v>13500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27300</v>
       </c>
     </row>
     <row r="15">
@@ -669,14 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nick Davaritorshiz</t>
+          <t>Sicong Chen</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7000</v>
+        <v>23500</v>
       </c>
       <c r="D15" t="n">
-        <v>7000</v>
+        <v>3800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27300</v>
       </c>
     </row>
     <row r="16">
@@ -685,14 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zhonghong Ge</t>
+          <t>Patrick Grave</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2100</v>
+        <v>-12800</v>
       </c>
       <c r="D16" t="n">
-        <v>2100</v>
+        <v>38500</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25700</v>
       </c>
     </row>
     <row r="17">
@@ -701,14 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ren En Kong </t>
+          <t>Liang Heng</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4800</v>
+        <v>51700</v>
       </c>
       <c r="D17" t="n">
-        <v>-4800</v>
+        <v>-30000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21700</v>
       </c>
     </row>
     <row r="18">
@@ -717,14 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Patrick Grave</t>
+          <t>Thomas Ross</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-12800</v>
+        <v>38100</v>
       </c>
       <c r="D18" t="n">
-        <v>-12800</v>
+        <v>-30000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8100</v>
       </c>
     </row>
     <row r="19">
@@ -733,14 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liam Fitzpatrick</t>
+          <t>Gia Huy Nguyen</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-19900</v>
+        <v>35600</v>
       </c>
       <c r="D19" t="n">
-        <v>-19900</v>
+        <v>-30000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5600</v>
       </c>
     </row>
     <row r="20">
@@ -749,14 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liam Fitzpatrick</t>
+          <t>Ha Vern Poh</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-19900</v>
+        <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>-19900</v>
+        <v>30000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -765,14 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bryan Foo</t>
+          <t xml:space="preserve">Ethan Yuen </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-30000</v>
+        <v>23000</v>
       </c>
       <c r="D21" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-7000</v>
       </c>
     </row>
     <row r="22">
@@ -781,14 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Byron </t>
+          <t>Michael Shen</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>-30000</v>
       </c>
       <c r="D22" t="n">
-        <v>-30000</v>
+        <v>22000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-8000</v>
       </c>
     </row>
     <row r="23">
@@ -797,14 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carsyn Chan</t>
+          <t>Josh Burke</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>-30000</v>
       </c>
       <c r="D23" t="n">
-        <v>-30000</v>
+        <v>18800</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-11200</v>
       </c>
     </row>
     <row r="24">
@@ -813,14 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cong Nguyen</t>
+          <t>Granth Saxena</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-30000</v>
+        <v>48600</v>
       </c>
       <c r="D24" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-11400</v>
       </c>
     </row>
     <row r="25">
@@ -829,14 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyle Ryan </t>
+          <t>Leo Morrison</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-30000</v>
+        <v>8100</v>
       </c>
       <c r="D25" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-21900</v>
       </c>
     </row>
     <row r="26">
@@ -845,14 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duc Tri Dinh</t>
+          <t>Nick Davaritorshiz</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-30000</v>
+        <v>7000</v>
       </c>
       <c r="D26" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-23000</v>
       </c>
     </row>
     <row r="27">
@@ -861,14 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Mak </t>
+          <t xml:space="preserve">Ren En Kong </t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-30000</v>
+        <v>-4800</v>
       </c>
       <c r="D27" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-34800</v>
       </c>
     </row>
     <row r="28">
@@ -877,14 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hui Yan Hei</t>
+          <t>Om Parikh</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>-30000</v>
       </c>
       <c r="D28" t="n">
-        <v>-30000</v>
+        <v>-9500</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-39500</v>
       </c>
     </row>
     <row r="29">
@@ -893,14 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jared Wong</t>
+          <t>Liam Fitzpatrick</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-30000</v>
+        <v>-19900</v>
       </c>
       <c r="D29" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-49900</v>
       </c>
     </row>
     <row r="30">
@@ -909,7 +998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jingya Lu</t>
+          <t>Bryan Foo</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -917,6 +1006,9 @@
       </c>
       <c r="D30" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="31">
@@ -925,7 +1017,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Long Do Dinh</t>
+          <t xml:space="preserve">Byron </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -933,6 +1025,9 @@
       </c>
       <c r="D31" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="32">
@@ -941,7 +1036,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Michael Shen</t>
+          <t>Carsyn Chan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -949,6 +1044,9 @@
       </c>
       <c r="D32" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="33">
@@ -957,7 +1055,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nhat Minh Chu</t>
+          <t>Cong Nguyen</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -965,6 +1063,9 @@
       </c>
       <c r="D33" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="34">
@@ -973,7 +1074,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shashank Bhat</t>
+          <t xml:space="preserve">Cyle Ryan </t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -981,6 +1082,9 @@
       </c>
       <c r="D34" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="35">
@@ -989,7 +1093,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svarnim Agarwal </t>
+          <t>Duc Tri Dinh</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -997,6 +1101,9 @@
       </c>
       <c r="D35" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="36">
@@ -1005,7 +1112,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vance Lam</t>
+          <t xml:space="preserve">Ethan Mak </t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1013,6 +1120,9 @@
       </c>
       <c r="D36" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="37">
@@ -1021,7 +1131,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Xuan Hung Ho</t>
+          <t>Hui Yan Hei</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1029,6 +1139,9 @@
       </c>
       <c r="D37" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="38">
@@ -1037,7 +1150,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yan Hei Hui</t>
+          <t>Jared Wong</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1045,6 +1158,9 @@
       </c>
       <c r="D38" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="39">
@@ -1053,7 +1169,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ying Shue Chan</t>
+          <t>Jingya Lu</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1061,6 +1177,9 @@
       </c>
       <c r="D39" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="40">
@@ -1069,7 +1188,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Yun-Chi Hsiao</t>
+          <t>Long Do Dinh</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1077,6 +1196,9 @@
       </c>
       <c r="D40" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="41">
@@ -1085,7 +1207,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eisegete</t>
+          <t>Nhat Minh Chu</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1093,6 +1215,9 @@
       </c>
       <c r="D41" t="n">
         <v>-30000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="42">
@@ -1101,14 +1226,169 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Shashank Bhat</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svarnim Agarwal </t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vance Lam</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Xuan Hung Ho</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yan Hei Hui</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ying Shue Chan</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yun-Chi Hsiao</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Eisegete</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Nguyen Vu Hiep</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-30000</v>
+      <c r="C50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-60000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Round 3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -466,17 +471,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard Shao</t>
+          <t>Aaron Xu</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-30000</v>
+        <v>180000</v>
       </c>
       <c r="D2" t="n">
-        <v>197000</v>
+        <v>-30000</v>
       </c>
       <c r="E2" t="n">
-        <v>167000</v>
+        <v>65100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>215100</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aaron Xu</t>
+          <t>Fangjian Hu</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>180000</v>
+        <v>-30000</v>
       </c>
       <c r="D3" t="n">
-        <v>-30000</v>
+        <v>86000</v>
       </c>
       <c r="E3" t="n">
-        <v>150000</v>
+        <v>87800</v>
+      </c>
+      <c r="F3" t="n">
+        <v>143800</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +515,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yong Jun Loo</t>
+          <t>Mohammed Affan Syed</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>157000</v>
+        <v>13800</v>
       </c>
       <c r="D4" t="n">
-        <v>-30000</v>
+        <v>13500</v>
       </c>
       <c r="E4" t="n">
-        <v>127000</v>
+        <v>111800</v>
+      </c>
+      <c r="F4" t="n">
+        <v>139100</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planning Saw</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>-30000</v>
       </c>
       <c r="D5" t="n">
-        <v>143200</v>
+        <v>197000</v>
       </c>
       <c r="E5" t="n">
-        <v>113200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>137000</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +559,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kevin Yu</t>
+          <t>Abhishek Tummalapalli</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>126700</v>
+        <v>47500</v>
       </c>
       <c r="E6" t="n">
-        <v>96700</v>
+        <v>118200</v>
+      </c>
+      <c r="F6" t="n">
+        <v>135700</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nicholas Yeoh</t>
+          <t>Nick Davaritorshiz</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124500</v>
+        <v>7000</v>
       </c>
       <c r="D7" t="n">
-        <v>-30000</v>
+        <v>9500</v>
       </c>
       <c r="E7" t="n">
-        <v>94500</v>
+        <v>95000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111500</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +603,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hoang Tu Vu</t>
+          <t>Nicholas Yeoh</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19300</v>
+        <v>124500</v>
       </c>
       <c r="D8" t="n">
-        <v>57200</v>
+        <v>3900</v>
       </c>
       <c r="E8" t="n">
-        <v>76500</v>
+        <v>-30000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98400</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +625,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gaurang Dev Singh</t>
+          <t>Yong Jun Loo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91800</v>
+        <v>157000</v>
       </c>
       <c r="D9" t="n">
         <v>-30000</v>
       </c>
       <c r="E9" t="n">
-        <v>61800</v>
+        <v>-30000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97000</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +647,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Techin Kno</t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>81400</v>
+        <v>126700</v>
       </c>
       <c r="E10" t="n">
-        <v>51400</v>
+        <v>-30000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66700</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +669,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zhonghong Ge</t>
+          <t>Thomas Gao</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2100</v>
+        <v>-30000</v>
       </c>
       <c r="D11" t="n">
-        <v>35000</v>
+        <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>37100</v>
+        <v>117200</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57200</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +691,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pouria Rafatmah</t>
+          <t xml:space="preserve">Ethan Yuen </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-30000</v>
+        <v>23000</v>
       </c>
       <c r="D12" t="n">
-        <v>65700</v>
+        <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>35700</v>
+        <v>61000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>54000</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +713,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Hoang Tu Vu</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-30000</v>
+        <v>19300</v>
       </c>
       <c r="D13" t="n">
-        <v>64900</v>
+        <v>57200</v>
       </c>
       <c r="E13" t="n">
-        <v>34900</v>
+        <v>-30000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>46500</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +735,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mohammed Affan Syed</t>
+          <t>Granth Saxena</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13800</v>
+        <v>48600</v>
       </c>
       <c r="D14" t="n">
-        <v>13500</v>
+        <v>-60000</v>
       </c>
       <c r="E14" t="n">
-        <v>27300</v>
+        <v>48500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37100</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +757,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sicong Chen</t>
+          <t>Gaurang Dev Singh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23500</v>
+        <v>91800</v>
       </c>
       <c r="D15" t="n">
-        <v>3800</v>
+        <v>-30000</v>
       </c>
       <c r="E15" t="n">
-        <v>27300</v>
+        <v>-30000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31800</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +779,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Patrick Grave</t>
+          <t>Techin Kno</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-12800</v>
+        <v>-30000</v>
       </c>
       <c r="D16" t="n">
-        <v>38500</v>
+        <v>81400</v>
       </c>
       <c r="E16" t="n">
-        <v>25700</v>
+        <v>-30000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21400</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +801,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liang Heng</t>
+          <t>Jun Law</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51700</v>
+        <v>-30000</v>
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
       </c>
       <c r="E17" t="n">
-        <v>21700</v>
+        <v>79500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19500</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +823,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thomas Ross</t>
+          <t>Zhonghong Ge</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38100</v>
+        <v>2100</v>
       </c>
       <c r="D18" t="n">
-        <v>-30000</v>
+        <v>35000</v>
       </c>
       <c r="E18" t="n">
-        <v>8100</v>
+        <v>-30000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7100</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +845,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gia Huy Nguyen</t>
+          <t>Pouria Rafatmah</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35600</v>
+        <v>-30000</v>
       </c>
       <c r="D19" t="n">
-        <v>-30000</v>
+        <v>65700</v>
       </c>
       <c r="E19" t="n">
-        <v>5600</v>
+        <v>-30000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5700</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +867,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ha Vern Poh</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>30000</v>
+        <v>64900</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-30000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4900</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +889,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Yuen </t>
+          <t>Sicong Chen</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="D21" t="n">
-        <v>-30000</v>
+        <v>3800</v>
       </c>
       <c r="E21" t="n">
-        <v>-7000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2700</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +911,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michael Shen</t>
+          <t>Thomas Ross</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-30000</v>
+        <v>38100</v>
       </c>
       <c r="D22" t="n">
-        <v>22000</v>
+        <v>14900</v>
       </c>
       <c r="E22" t="n">
-        <v>-8000</v>
+        <v>-60000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-7000</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +933,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Josh Burke</t>
+          <t>Liang Heng</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-30000</v>
+        <v>51700</v>
       </c>
       <c r="D23" t="n">
-        <v>18800</v>
+        <v>-30000</v>
       </c>
       <c r="E23" t="n">
-        <v>-11200</v>
+        <v>-30000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-8300</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +955,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Granth Saxena</t>
+          <t>Gia Huy Nguyen</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48600</v>
+        <v>35600</v>
       </c>
       <c r="D24" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="E24" t="n">
-        <v>-11400</v>
+        <v>-30000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-24400</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +977,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Leo Morrison</t>
+          <t>Ha Vern Poh</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8100</v>
+        <v>-30000</v>
       </c>
       <c r="D25" t="n">
-        <v>-30000</v>
+        <v>30000</v>
       </c>
       <c r="E25" t="n">
-        <v>-21900</v>
+        <v>-30000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-30000</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +999,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nick Davaritorshiz</t>
+          <t>Patrick Grave</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7000</v>
+        <v>-12800</v>
       </c>
       <c r="D26" t="n">
-        <v>-30000</v>
+        <v>38500</v>
       </c>
       <c r="E26" t="n">
-        <v>-23000</v>
+        <v>-55700</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-30000</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +1021,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ren En Kong </t>
+          <t>Michael Shen</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-4800</v>
+        <v>-30000</v>
       </c>
       <c r="D27" t="n">
-        <v>-30000</v>
+        <v>22000</v>
       </c>
       <c r="E27" t="n">
-        <v>-34800</v>
+        <v>-30000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-38000</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +1043,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Om Parikh</t>
+          <t>Josh Burke</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>-30000</v>
       </c>
       <c r="D28" t="n">
-        <v>-9500</v>
+        <v>18800</v>
       </c>
       <c r="E28" t="n">
-        <v>-39500</v>
+        <v>-30000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-41200</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +1065,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liam Fitzpatrick</t>
+          <t xml:space="preserve">Vasu Dhawan </t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-19900</v>
+        <v>-30000</v>
       </c>
       <c r="D29" t="n">
-        <v>-30000</v>
+        <v>11100</v>
       </c>
       <c r="E29" t="n">
-        <v>-49900</v>
+        <v>-30000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-48900</v>
       </c>
     </row>
     <row r="30">
@@ -998,7 +1087,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bryan Foo</t>
+          <t>Felix Choi</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1008,7 +1097,10 @@
         <v>-30000</v>
       </c>
       <c r="E30" t="n">
-        <v>-60000</v>
+        <v>10200</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-49800</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1109,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Byron </t>
+          <t>Leo Morrison</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-30000</v>
+        <v>8100</v>
       </c>
       <c r="D31" t="n">
         <v>-30000</v>
       </c>
       <c r="E31" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-51900</v>
       </c>
     </row>
     <row r="32">
@@ -1036,7 +1131,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Carsyn Chan</t>
+          <t>Hamza Qureshi</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1046,7 +1141,10 @@
         <v>-30000</v>
       </c>
       <c r="E32" t="n">
-        <v>-60000</v>
+        <v>-1100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-61100</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1153,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cong Nguyen</t>
+          <t xml:space="preserve">Ren En Kong </t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-30000</v>
+        <v>-4800</v>
       </c>
       <c r="D33" t="n">
         <v>-30000</v>
       </c>
       <c r="E33" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-64800</v>
       </c>
     </row>
     <row r="34">
@@ -1074,7 +1175,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyle Ryan </t>
+          <t>Kang Pi</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1084,7 +1185,10 @@
         <v>-30000</v>
       </c>
       <c r="E34" t="n">
-        <v>-60000</v>
+        <v>-4900</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-64900</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1197,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Duc Tri Dinh</t>
+          <t>Om Parikh</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>-30000</v>
       </c>
       <c r="D35" t="n">
-        <v>-30000</v>
+        <v>-9500</v>
       </c>
       <c r="E35" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-69500</v>
       </c>
     </row>
     <row r="36">
@@ -1112,7 +1219,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Mak </t>
+          <t>Haopengjiang</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1122,7 +1229,10 @@
         <v>-30000</v>
       </c>
       <c r="E36" t="n">
-        <v>-60000</v>
+        <v>-19300</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-79300</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1241,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hui Yan Hei</t>
+          <t>Liam Fitzpatrick</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-30000</v>
+        <v>-19900</v>
       </c>
       <c r="D37" t="n">
         <v>-30000</v>
       </c>
       <c r="E37" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-79900</v>
       </c>
     </row>
     <row r="38">
@@ -1150,7 +1263,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jared Wong</t>
+          <t>Bryan Foo</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1160,7 +1273,10 @@
         <v>-30000</v>
       </c>
       <c r="E38" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="39">
@@ -1169,7 +1285,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jingya Lu</t>
+          <t xml:space="preserve">Byron </t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1179,7 +1295,10 @@
         <v>-30000</v>
       </c>
       <c r="E39" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="40">
@@ -1188,7 +1307,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Long Do Dinh</t>
+          <t>Carsyn Chan</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1198,7 +1317,10 @@
         <v>-30000</v>
       </c>
       <c r="E40" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="41">
@@ -1207,7 +1329,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nhat Minh Chu</t>
+          <t>Cong Nguyen</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1217,7 +1339,10 @@
         <v>-30000</v>
       </c>
       <c r="E41" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="42">
@@ -1226,7 +1351,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Shashank Bhat</t>
+          <t xml:space="preserve">Cyle Ryan </t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1236,7 +1361,10 @@
         <v>-30000</v>
       </c>
       <c r="E42" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="43">
@@ -1245,7 +1373,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svarnim Agarwal </t>
+          <t>Duc Tri Dinh</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1255,7 +1383,10 @@
         <v>-30000</v>
       </c>
       <c r="E43" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="44">
@@ -1264,7 +1395,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vance Lam</t>
+          <t xml:space="preserve">Ethan Mak </t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1274,7 +1405,10 @@
         <v>-30000</v>
       </c>
       <c r="E44" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="45">
@@ -1283,7 +1417,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Xuan Hung Ho</t>
+          <t>Hui Yan Hei</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1293,7 +1427,10 @@
         <v>-30000</v>
       </c>
       <c r="E45" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="46">
@@ -1302,7 +1439,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Yan Hei Hui</t>
+          <t>Jared Wong</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1312,7 +1449,10 @@
         <v>-30000</v>
       </c>
       <c r="E46" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="47">
@@ -1321,7 +1461,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ying Shue Chan</t>
+          <t>Jingya Lu</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1331,7 +1471,10 @@
         <v>-30000</v>
       </c>
       <c r="E47" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="48">
@@ -1340,7 +1483,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yun-Chi Hsiao</t>
+          <t>Long Do Dinh</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1350,7 +1493,10 @@
         <v>-30000</v>
       </c>
       <c r="E48" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="49">
@@ -1359,7 +1505,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Eisegete</t>
+          <t>Nhat Minh Chu</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1369,7 +1515,10 @@
         <v>-30000</v>
       </c>
       <c r="E49" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="50">
@@ -1378,17 +1527,196 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Shashank Bhat</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svarnim Agarwal </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vance Lam</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Xuan Hung Ho</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yan Hei Hui</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ying Shue Chan</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yun-Chi Hsiao</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Eisegete</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Nguyen Vu Hiep</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-60000</v>
+      <c r="C58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-90000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Round 4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -471,20 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aaron Xu</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>180000</v>
+        <v>-30000</v>
       </c>
       <c r="D2" t="n">
-        <v>-30000</v>
+        <v>197000</v>
       </c>
       <c r="E2" t="n">
-        <v>65100</v>
+        <v>-30000</v>
       </c>
       <c r="F2" t="n">
-        <v>215100</v>
+        <v>102000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>239000</v>
       </c>
     </row>
     <row r="3">
@@ -493,20 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fangjian Hu</t>
+          <t>Aaron Xu</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-30000</v>
+        <v>180000</v>
       </c>
       <c r="D3" t="n">
-        <v>86000</v>
+        <v>-30000</v>
       </c>
       <c r="E3" t="n">
-        <v>87800</v>
+        <v>65100</v>
       </c>
       <c r="F3" t="n">
-        <v>143800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>185100</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +526,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohammed Affan Syed</t>
+          <t>Nick Davaritorshiz</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13800</v>
+        <v>7000</v>
       </c>
       <c r="D4" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="E4" t="n">
-        <v>111800</v>
+        <v>91000</v>
       </c>
       <c r="F4" t="n">
-        <v>139100</v>
+        <v>45000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>152500</v>
       </c>
     </row>
     <row r="5">
@@ -537,20 +551,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Richard Shao</t>
+          <t>Mohammed Affan Syed</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-30000</v>
+        <v>13800</v>
       </c>
       <c r="D5" t="n">
-        <v>197000</v>
+        <v>13500</v>
       </c>
       <c r="E5" t="n">
-        <v>-30000</v>
+        <v>111800</v>
       </c>
       <c r="F5" t="n">
-        <v>137000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>109100</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +589,10 @@
         <v>118200</v>
       </c>
       <c r="F6" t="n">
-        <v>135700</v>
+        <v>-30000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>105700</v>
       </c>
     </row>
     <row r="7">
@@ -581,20 +601,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nick Davaritorshiz</t>
+          <t>Fangjian Hu</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7000</v>
+        <v>-30000</v>
       </c>
       <c r="D7" t="n">
-        <v>9500</v>
+        <v>86000</v>
       </c>
       <c r="E7" t="n">
-        <v>95000</v>
+        <v>87800</v>
       </c>
       <c r="F7" t="n">
-        <v>111500</v>
+        <v>-60000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>83800</v>
       </c>
     </row>
     <row r="8">
@@ -603,20 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicholas Yeoh</t>
+          <t>Zhonghong Ge</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>124500</v>
+        <v>2100</v>
       </c>
       <c r="D8" t="n">
-        <v>3900</v>
+        <v>35000</v>
       </c>
       <c r="E8" t="n">
         <v>-30000</v>
       </c>
       <c r="F8" t="n">
-        <v>98400</v>
+        <v>61600</v>
+      </c>
+      <c r="G8" t="n">
+        <v>68700</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +664,10 @@
         <v>-30000</v>
       </c>
       <c r="F9" t="n">
-        <v>97000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>67000</v>
       </c>
     </row>
     <row r="10">
@@ -647,20 +676,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kevin Yu</t>
+          <t>Sicong Chen</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-30000</v>
+        <v>23500</v>
       </c>
       <c r="D10" t="n">
-        <v>126700</v>
+        <v>3800</v>
       </c>
       <c r="E10" t="n">
         <v>-30000</v>
       </c>
       <c r="F10" t="n">
-        <v>66700</v>
+        <v>66000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63300</v>
       </c>
     </row>
     <row r="11">
@@ -669,7 +701,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Gao</t>
+          <t>Hamza Qureshi</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -679,10 +711,13 @@
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>117200</v>
+        <v>-1100</v>
       </c>
       <c r="F11" t="n">
-        <v>57200</v>
+        <v>105000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43900</v>
       </c>
     </row>
     <row r="12">
@@ -691,20 +726,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Yuen </t>
+          <t>Haopengjiang</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23000</v>
+        <v>-30000</v>
       </c>
       <c r="D12" t="n">
         <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>61000</v>
+        <v>70700</v>
       </c>
       <c r="F12" t="n">
-        <v>54000</v>
+        <v>30000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40700</v>
       </c>
     </row>
     <row r="13">
@@ -713,20 +751,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hoang Tu Vu</t>
+          <t>Nicholas Yeoh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19300</v>
+        <v>124500</v>
       </c>
       <c r="D13" t="n">
-        <v>57200</v>
+        <v>3900</v>
       </c>
       <c r="E13" t="n">
         <v>-30000</v>
       </c>
       <c r="F13" t="n">
-        <v>46500</v>
+        <v>-60000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>38400</v>
       </c>
     </row>
     <row r="14">
@@ -735,20 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Granth Saxena</t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48600</v>
+        <v>-30000</v>
       </c>
       <c r="D14" t="n">
-        <v>-60000</v>
+        <v>126700</v>
       </c>
       <c r="E14" t="n">
-        <v>48500</v>
+        <v>-30000</v>
       </c>
       <c r="F14" t="n">
-        <v>37100</v>
+        <v>-30000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>36700</v>
       </c>
     </row>
     <row r="15">
@@ -757,20 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gaurang Dev Singh</t>
+          <t xml:space="preserve">Ethan Yuen </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>91800</v>
+        <v>23000</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
       </c>
       <c r="E15" t="n">
-        <v>-30000</v>
+        <v>61000</v>
       </c>
       <c r="F15" t="n">
-        <v>31800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24000</v>
       </c>
     </row>
     <row r="16">
@@ -779,20 +826,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Techin Kno</t>
+          <t>Hoang Tu Vu</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-30000</v>
+        <v>19300</v>
       </c>
       <c r="D16" t="n">
-        <v>81400</v>
+        <v>57200</v>
       </c>
       <c r="E16" t="n">
         <v>-30000</v>
       </c>
       <c r="F16" t="n">
-        <v>21400</v>
+        <v>-30000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16500</v>
       </c>
     </row>
     <row r="17">
@@ -801,7 +851,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jun Law</t>
+          <t>Jeremy Annal</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -811,10 +861,13 @@
         <v>-30000</v>
       </c>
       <c r="E17" t="n">
-        <v>79500</v>
+        <v>-30000</v>
       </c>
       <c r="F17" t="n">
-        <v>19500</v>
+        <v>95000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="18">
@@ -823,20 +876,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zhonghong Ge</t>
+          <t>Gaurang Dev Singh</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2100</v>
+        <v>91800</v>
       </c>
       <c r="D18" t="n">
-        <v>35000</v>
+        <v>-30000</v>
       </c>
       <c r="E18" t="n">
         <v>-30000</v>
       </c>
       <c r="F18" t="n">
-        <v>7100</v>
+        <v>-30000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="19">
@@ -845,20 +901,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pouria Rafatmah</t>
+          <t>Thomas Ross</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-30000</v>
+        <v>38100</v>
       </c>
       <c r="D19" t="n">
-        <v>65700</v>
+        <v>14900</v>
       </c>
       <c r="E19" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="F19" t="n">
-        <v>5700</v>
+        <v>7100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -867,20 +926,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Thomas Gao</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>64900</v>
+        <v>-30000</v>
       </c>
       <c r="E20" t="n">
-        <v>-30000</v>
+        <v>117200</v>
       </c>
       <c r="F20" t="n">
-        <v>4900</v>
+        <v>-60000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2800</v>
       </c>
     </row>
     <row r="21">
@@ -889,20 +951,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sicong Chen</t>
+          <t>Jun Law</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23500</v>
+        <v>-30000</v>
       </c>
       <c r="D21" t="n">
-        <v>3800</v>
+        <v>-30000</v>
       </c>
       <c r="E21" t="n">
-        <v>-30000</v>
+        <v>79500</v>
       </c>
       <c r="F21" t="n">
-        <v>-2700</v>
+        <v>-30000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-10500</v>
       </c>
     </row>
     <row r="22">
@@ -911,20 +976,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thomas Ross</t>
+          <t>Josh Burke</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38100</v>
+        <v>-30000</v>
       </c>
       <c r="D22" t="n">
-        <v>14900</v>
+        <v>18800</v>
       </c>
       <c r="E22" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="F22" t="n">
-        <v>-7000</v>
+        <v>29600</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-11600</v>
       </c>
     </row>
     <row r="23">
@@ -933,11 +1001,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liang Heng</t>
+          <t xml:space="preserve">Ren En Kong </t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51700</v>
+        <v>-4800</v>
       </c>
       <c r="D23" t="n">
         <v>-30000</v>
@@ -946,7 +1014,10 @@
         <v>-30000</v>
       </c>
       <c r="F23" t="n">
-        <v>-8300</v>
+        <v>44200</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-20600</v>
       </c>
     </row>
     <row r="24">
@@ -955,20 +1026,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gia Huy Nguyen</t>
+          <t>Granth Saxena</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35600</v>
+        <v>48600</v>
       </c>
       <c r="D24" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="E24" t="n">
-        <v>-30000</v>
+        <v>48500</v>
       </c>
       <c r="F24" t="n">
-        <v>-24400</v>
+        <v>-60000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-22900</v>
       </c>
     </row>
     <row r="25">
@@ -977,20 +1051,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ha Vern Poh</t>
+          <t>Pouria Rafatmah</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>-30000</v>
       </c>
       <c r="D25" t="n">
-        <v>30000</v>
+        <v>65700</v>
       </c>
       <c r="E25" t="n">
         <v>-30000</v>
       </c>
       <c r="F25" t="n">
         <v>-30000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-24300</v>
       </c>
     </row>
     <row r="26">
@@ -999,20 +1076,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Patrick Grave</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-12800</v>
+        <v>-30000</v>
       </c>
       <c r="D26" t="n">
-        <v>38500</v>
+        <v>64900</v>
       </c>
       <c r="E26" t="n">
-        <v>-55700</v>
+        <v>-30000</v>
       </c>
       <c r="F26" t="n">
         <v>-30000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-25100</v>
       </c>
     </row>
     <row r="27">
@@ -1021,20 +1101,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael Shen</t>
+          <t>Vance Lam</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>-30000</v>
       </c>
       <c r="D27" t="n">
-        <v>22000</v>
+        <v>-30000</v>
       </c>
       <c r="E27" t="n">
-        <v>-30000</v>
+        <v>52700</v>
       </c>
       <c r="F27" t="n">
-        <v>-38000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-37300</v>
       </c>
     </row>
     <row r="28">
@@ -1043,20 +1126,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Josh Burke</t>
+          <t>Liang Heng</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-30000</v>
+        <v>51700</v>
       </c>
       <c r="D28" t="n">
-        <v>18800</v>
+        <v>-30000</v>
       </c>
       <c r="E28" t="n">
         <v>-30000</v>
       </c>
       <c r="F28" t="n">
-        <v>-41200</v>
+        <v>-30000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-38300</v>
       </c>
     </row>
     <row r="29">
@@ -1065,20 +1151,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vasu Dhawan </t>
+          <t>Bryan Foo</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>-30000</v>
       </c>
       <c r="D29" t="n">
-        <v>11100</v>
+        <v>-30000</v>
       </c>
       <c r="E29" t="n">
-        <v>-30000</v>
+        <v>69100</v>
       </c>
       <c r="F29" t="n">
-        <v>-48900</v>
+        <v>-60000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-50900</v>
       </c>
     </row>
     <row r="30">
@@ -1087,20 +1176,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Felix Choi</t>
+          <t>Gia Huy Nguyen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-30000</v>
+        <v>35600</v>
       </c>
       <c r="D30" t="n">
         <v>-30000</v>
       </c>
       <c r="E30" t="n">
-        <v>10200</v>
+        <v>-30000</v>
       </c>
       <c r="F30" t="n">
-        <v>-49800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-54400</v>
       </c>
     </row>
     <row r="31">
@@ -1109,20 +1201,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Leo Morrison</t>
+          <t>Ha Vern Poh</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8100</v>
+        <v>-30000</v>
       </c>
       <c r="D31" t="n">
-        <v>-30000</v>
+        <v>30000</v>
       </c>
       <c r="E31" t="n">
         <v>-30000</v>
       </c>
       <c r="F31" t="n">
-        <v>-51900</v>
+        <v>-30000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="32">
@@ -1131,20 +1226,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hamza Qureshi</t>
+          <t>Patrick Grave</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-30000</v>
+        <v>-12800</v>
       </c>
       <c r="D32" t="n">
-        <v>-30000</v>
+        <v>38500</v>
       </c>
       <c r="E32" t="n">
-        <v>-1100</v>
+        <v>-55700</v>
       </c>
       <c r="F32" t="n">
-        <v>-61100</v>
+        <v>-30000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="33">
@@ -1153,20 +1251,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ren En Kong </t>
+          <t>Michael Shen</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-4800</v>
+        <v>-30000</v>
       </c>
       <c r="D33" t="n">
-        <v>-30000</v>
+        <v>22000</v>
       </c>
       <c r="E33" t="n">
         <v>-30000</v>
       </c>
       <c r="F33" t="n">
-        <v>-64800</v>
+        <v>-30000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-68000</v>
       </c>
     </row>
     <row r="34">
@@ -1175,20 +1276,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kang Pi</t>
+          <t xml:space="preserve">Vasu Dhawan </t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>-30000</v>
       </c>
       <c r="D34" t="n">
-        <v>-30000</v>
+        <v>11100</v>
       </c>
       <c r="E34" t="n">
-        <v>-4900</v>
+        <v>-30000</v>
       </c>
       <c r="F34" t="n">
-        <v>-64900</v>
+        <v>-30000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-78900</v>
       </c>
     </row>
     <row r="35">
@@ -1197,20 +1301,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Om Parikh</t>
+          <t>Felix Choi</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>-30000</v>
       </c>
       <c r="D35" t="n">
-        <v>-9500</v>
+        <v>-30000</v>
       </c>
       <c r="E35" t="n">
-        <v>-30000</v>
+        <v>10200</v>
       </c>
       <c r="F35" t="n">
-        <v>-69500</v>
+        <v>-30000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-79800</v>
       </c>
     </row>
     <row r="36">
@@ -1219,20 +1326,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Haopengjiang</t>
+          <t>Leo Morrison</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-30000</v>
+        <v>8100</v>
       </c>
       <c r="D36" t="n">
         <v>-30000</v>
       </c>
       <c r="E36" t="n">
-        <v>-19300</v>
+        <v>-30000</v>
       </c>
       <c r="F36" t="n">
-        <v>-79300</v>
+        <v>-30000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-81900</v>
       </c>
     </row>
     <row r="37">
@@ -1241,20 +1351,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liam Fitzpatrick</t>
+          <t>Kang Pi</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-19900</v>
+        <v>-30000</v>
       </c>
       <c r="D37" t="n">
         <v>-30000</v>
       </c>
       <c r="E37" t="n">
-        <v>-30000</v>
+        <v>-4900</v>
       </c>
       <c r="F37" t="n">
-        <v>-79900</v>
+        <v>-30000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-94900</v>
       </c>
     </row>
     <row r="38">
@@ -1263,20 +1376,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bryan Foo</t>
+          <t>Om Parikh</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>-30000</v>
       </c>
       <c r="D38" t="n">
-        <v>-30000</v>
+        <v>-9500</v>
       </c>
       <c r="E38" t="n">
         <v>-30000</v>
       </c>
       <c r="F38" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-99500</v>
       </c>
     </row>
     <row r="39">
@@ -1285,11 +1401,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Byron </t>
+          <t>Liam Fitzpatrick</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-30000</v>
+        <v>-19900</v>
       </c>
       <c r="D39" t="n">
         <v>-30000</v>
@@ -1298,7 +1414,10 @@
         <v>-30000</v>
       </c>
       <c r="F39" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-109900</v>
       </c>
     </row>
     <row r="40">
@@ -1307,7 +1426,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Carsyn Chan</t>
+          <t xml:space="preserve">Byron </t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1320,7 +1439,10 @@
         <v>-30000</v>
       </c>
       <c r="F40" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="41">
@@ -1329,7 +1451,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cong Nguyen</t>
+          <t>Carsyn Chan</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1342,7 +1464,10 @@
         <v>-30000</v>
       </c>
       <c r="F41" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="42">
@@ -1351,7 +1476,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyle Ryan </t>
+          <t>Cong Nguyen</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1364,7 +1489,10 @@
         <v>-30000</v>
       </c>
       <c r="F42" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="43">
@@ -1373,7 +1501,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Duc Tri Dinh</t>
+          <t xml:space="preserve">Cyle Ryan </t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1386,7 +1514,10 @@
         <v>-30000</v>
       </c>
       <c r="F43" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="44">
@@ -1395,7 +1526,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Mak </t>
+          <t>Duc Tri Dinh</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1408,7 +1539,10 @@
         <v>-30000</v>
       </c>
       <c r="F44" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="45">
@@ -1417,7 +1551,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hui Yan Hei</t>
+          <t xml:space="preserve">Ethan Mak </t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1430,7 +1564,10 @@
         <v>-30000</v>
       </c>
       <c r="F45" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="46">
@@ -1439,7 +1576,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jared Wong</t>
+          <t>Hui Yan Hei</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1452,7 +1589,10 @@
         <v>-30000</v>
       </c>
       <c r="F46" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="47">
@@ -1461,7 +1601,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jingya Lu</t>
+          <t>Jared Wong</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1474,7 +1614,10 @@
         <v>-30000</v>
       </c>
       <c r="F47" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="48">
@@ -1483,7 +1626,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Long Do Dinh</t>
+          <t>Jingya Lu</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1496,7 +1639,10 @@
         <v>-30000</v>
       </c>
       <c r="F48" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="49">
@@ -1505,7 +1651,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nhat Minh Chu</t>
+          <t>Katao Ho</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1518,7 +1664,10 @@
         <v>-30000</v>
       </c>
       <c r="F49" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="50">
@@ -1527,7 +1676,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shashank Bhat</t>
+          <t>Long Do Dinh</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1540,7 +1689,10 @@
         <v>-30000</v>
       </c>
       <c r="F50" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="51">
@@ -1549,7 +1701,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Svarnim Agarwal </t>
+          <t>Nhat Minh Chu</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1562,7 +1714,10 @@
         <v>-30000</v>
       </c>
       <c r="F51" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="52">
@@ -1571,7 +1726,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vance Lam</t>
+          <t>Shashank Bhat</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1584,7 +1739,10 @@
         <v>-30000</v>
       </c>
       <c r="F52" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="53">
@@ -1593,7 +1751,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Xuan Hung Ho</t>
+          <t xml:space="preserve">Svarnim Agarwal </t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1606,7 +1764,10 @@
         <v>-30000</v>
       </c>
       <c r="F53" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="54">
@@ -1615,7 +1776,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Yan Hei Hui</t>
+          <t>Xuan Hung Ho</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1628,7 +1789,10 @@
         <v>-30000</v>
       </c>
       <c r="F54" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1801,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ying Shue Chan</t>
+          <t>Yan Hei Hui</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1650,7 +1814,10 @@
         <v>-30000</v>
       </c>
       <c r="F55" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="56">
@@ -1659,7 +1826,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Yun-Chi Hsiao</t>
+          <t>Ying Shue Chan</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1672,7 +1839,10 @@
         <v>-30000</v>
       </c>
       <c r="F56" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="57">
@@ -1681,7 +1851,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Eisegete</t>
+          <t>Yun-Chi Hsiao</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1694,7 +1864,10 @@
         <v>-30000</v>
       </c>
       <c r="F57" t="n">
-        <v>-90000</v>
+        <v>-30000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-120000</v>
       </c>
     </row>
     <row r="58">
@@ -1703,20 +1876,48 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Eisegete</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Nguyen Vu Hiep</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-90000</v>
+      <c r="C59" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-120000</v>
       </c>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Round 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -476,23 +481,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard Shao</t>
+          <t>Mohammed Affan Syed</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-30000</v>
+        <v>13800</v>
       </c>
       <c r="D2" t="n">
-        <v>197000</v>
+        <v>13500</v>
       </c>
       <c r="E2" t="n">
-        <v>-30000</v>
+        <v>111800</v>
       </c>
       <c r="F2" t="n">
-        <v>102000</v>
+        <v>-30000</v>
       </c>
       <c r="G2" t="n">
-        <v>239000</v>
+        <v>50800</v>
+      </c>
+      <c r="H2" t="n">
+        <v>189900</v>
       </c>
     </row>
     <row r="3">
@@ -517,6 +525,9 @@
         <v>-30000</v>
       </c>
       <c r="G3" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H3" t="n">
         <v>185100</v>
       </c>
     </row>
@@ -526,23 +537,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nick Davaritorshiz</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7000</v>
+        <v>-30000</v>
       </c>
       <c r="D4" t="n">
-        <v>9500</v>
+        <v>197000</v>
       </c>
       <c r="E4" t="n">
-        <v>91000</v>
+        <v>-30000</v>
       </c>
       <c r="F4" t="n">
-        <v>45000</v>
+        <v>102000</v>
       </c>
       <c r="G4" t="n">
-        <v>152500</v>
+        <v>-90000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>179000</v>
       </c>
     </row>
     <row r="5">
@@ -551,23 +565,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mohammed Affan Syed</t>
+          <t>Zhonghong Ge</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13800</v>
+        <v>2100</v>
       </c>
       <c r="D5" t="n">
-        <v>13500</v>
+        <v>35000</v>
       </c>
       <c r="E5" t="n">
-        <v>111800</v>
+        <v>-30000</v>
       </c>
       <c r="F5" t="n">
-        <v>-30000</v>
+        <v>61600</v>
       </c>
       <c r="G5" t="n">
-        <v>109100</v>
+        <v>60700</v>
+      </c>
+      <c r="H5" t="n">
+        <v>159400</v>
       </c>
     </row>
     <row r="6">
@@ -576,23 +593,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abhishek Tummalapalli</t>
+          <t>Josh Burke</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>47500</v>
+        <v>18800</v>
       </c>
       <c r="E6" t="n">
-        <v>118200</v>
+        <v>-30000</v>
       </c>
       <c r="F6" t="n">
-        <v>-30000</v>
+        <v>29600</v>
       </c>
       <c r="G6" t="n">
-        <v>105700</v>
+        <v>137600</v>
+      </c>
+      <c r="H6" t="n">
+        <v>156000</v>
       </c>
     </row>
     <row r="7">
@@ -601,23 +621,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fangjian Hu</t>
+          <t>Carsyn Chan</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>-30000</v>
       </c>
       <c r="D7" t="n">
-        <v>86000</v>
+        <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>87800</v>
+        <v>-30000</v>
       </c>
       <c r="F7" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="G7" t="n">
-        <v>83800</v>
+        <v>244000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>154000</v>
       </c>
     </row>
     <row r="8">
@@ -626,23 +649,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zhonghong Ge</t>
+          <t>Nick Davaritorshiz</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2100</v>
+        <v>7000</v>
       </c>
       <c r="D8" t="n">
-        <v>35000</v>
+        <v>9500</v>
       </c>
       <c r="E8" t="n">
-        <v>-30000</v>
+        <v>91000</v>
       </c>
       <c r="F8" t="n">
-        <v>61600</v>
+        <v>45000</v>
       </c>
       <c r="G8" t="n">
-        <v>68700</v>
+        <v>-30000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>152500</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +693,10 @@
         <v>-30000</v>
       </c>
       <c r="G9" t="n">
-        <v>67000</v>
+        <v>37400</v>
+      </c>
+      <c r="H9" t="n">
+        <v>134400</v>
       </c>
     </row>
     <row r="10">
@@ -676,23 +705,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sicong Chen</t>
+          <t>Abhishek Tummalapalli</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23500</v>
+        <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>3800</v>
+        <v>47500</v>
       </c>
       <c r="E10" t="n">
-        <v>-30000</v>
+        <v>118200</v>
       </c>
       <c r="F10" t="n">
-        <v>66000</v>
+        <v>-30000</v>
       </c>
       <c r="G10" t="n">
-        <v>63300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>105700</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +733,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hamza Qureshi</t>
+          <t>Haopengjiang</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -711,13 +743,16 @@
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>-1100</v>
+        <v>70700</v>
       </c>
       <c r="F11" t="n">
-        <v>105000</v>
+        <v>30000</v>
       </c>
       <c r="G11" t="n">
-        <v>43900</v>
+        <v>24000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>94700</v>
       </c>
     </row>
     <row r="12">
@@ -726,23 +761,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Haopengjiang</t>
+          <t>Fangjian Hu</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>-30000</v>
       </c>
       <c r="D12" t="n">
-        <v>-30000</v>
+        <v>86000</v>
       </c>
       <c r="E12" t="n">
-        <v>70700</v>
+        <v>87800</v>
       </c>
       <c r="F12" t="n">
-        <v>30000</v>
+        <v>-60000</v>
       </c>
       <c r="G12" t="n">
-        <v>40700</v>
+        <v>-30000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>83800</v>
       </c>
     </row>
     <row r="13">
@@ -751,23 +789,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nicholas Yeoh</t>
+          <t>Sicong Chen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>124500</v>
+        <v>23500</v>
       </c>
       <c r="D13" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E13" t="n">
         <v>-30000</v>
       </c>
       <c r="F13" t="n">
-        <v>-60000</v>
+        <v>66000</v>
       </c>
       <c r="G13" t="n">
-        <v>38400</v>
+        <v>-30000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>63300</v>
       </c>
     </row>
     <row r="14">
@@ -776,23 +817,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kevin Yu</t>
+          <t>Hamza Qureshi</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>-30000</v>
       </c>
       <c r="D14" t="n">
-        <v>126700</v>
+        <v>-30000</v>
       </c>
       <c r="E14" t="n">
-        <v>-30000</v>
+        <v>-1100</v>
       </c>
       <c r="F14" t="n">
-        <v>-30000</v>
+        <v>105000</v>
       </c>
       <c r="G14" t="n">
-        <v>36700</v>
+        <v>-30000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43900</v>
       </c>
     </row>
     <row r="15">
@@ -801,23 +845,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethan Yuen </t>
+          <t>Nicholas Yeoh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23000</v>
+        <v>124500</v>
       </c>
       <c r="D15" t="n">
-        <v>-30000</v>
+        <v>3900</v>
       </c>
       <c r="E15" t="n">
-        <v>61000</v>
+        <v>-30000</v>
       </c>
       <c r="F15" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="G15" t="n">
-        <v>24000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>38400</v>
       </c>
     </row>
     <row r="16">
@@ -826,14 +873,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hoang Tu Vu</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19300</v>
+        <v>-30000</v>
       </c>
       <c r="D16" t="n">
-        <v>57200</v>
+        <v>64900</v>
       </c>
       <c r="E16" t="n">
         <v>-30000</v>
@@ -842,7 +889,10 @@
         <v>-30000</v>
       </c>
       <c r="G16" t="n">
-        <v>16500</v>
+        <v>32700</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37600</v>
       </c>
     </row>
     <row r="17">
@@ -851,23 +901,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jeremy Annal</t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>-30000</v>
       </c>
       <c r="D17" t="n">
-        <v>-30000</v>
+        <v>126700</v>
       </c>
       <c r="E17" t="n">
         <v>-30000</v>
       </c>
       <c r="F17" t="n">
-        <v>95000</v>
+        <v>-30000</v>
       </c>
       <c r="G17" t="n">
-        <v>5000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36700</v>
       </c>
     </row>
     <row r="18">
@@ -876,23 +929,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gaurang Dev Singh</t>
+          <t xml:space="preserve">Ethan Yuen </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>91800</v>
+        <v>23000</v>
       </c>
       <c r="D18" t="n">
         <v>-30000</v>
       </c>
       <c r="E18" t="n">
-        <v>-30000</v>
+        <v>61000</v>
       </c>
       <c r="F18" t="n">
         <v>-30000</v>
       </c>
       <c r="G18" t="n">
-        <v>1800</v>
+        <v>-30000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24000</v>
       </c>
     </row>
     <row r="19">
@@ -901,23 +957,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Thomas Ross</t>
+          <t>Hoang Tu Vu</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38100</v>
+        <v>19300</v>
       </c>
       <c r="D19" t="n">
-        <v>14900</v>
+        <v>57200</v>
       </c>
       <c r="E19" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="F19" t="n">
-        <v>7100</v>
+        <v>-30000</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>-30000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16500</v>
       </c>
     </row>
     <row r="20">
@@ -926,7 +985,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thomas Gao</t>
+          <t>Jeremy Annal</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -936,13 +995,16 @@
         <v>-30000</v>
       </c>
       <c r="E20" t="n">
-        <v>117200</v>
+        <v>-30000</v>
       </c>
       <c r="F20" t="n">
-        <v>-60000</v>
+        <v>95000</v>
       </c>
       <c r="G20" t="n">
-        <v>-2800</v>
+        <v>-30000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="21">
@@ -951,23 +1013,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jun Law</t>
+          <t>Gaurang Dev Singh</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-30000</v>
+        <v>91800</v>
       </c>
       <c r="D21" t="n">
         <v>-30000</v>
       </c>
       <c r="E21" t="n">
-        <v>79500</v>
+        <v>-30000</v>
       </c>
       <c r="F21" t="n">
         <v>-30000</v>
       </c>
       <c r="G21" t="n">
-        <v>-10500</v>
+        <v>-30000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="22">
@@ -976,23 +1041,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Josh Burke</t>
+          <t>Thomas Ross</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-30000</v>
+        <v>38100</v>
       </c>
       <c r="D22" t="n">
-        <v>18800</v>
+        <v>14900</v>
       </c>
       <c r="E22" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="F22" t="n">
-        <v>29600</v>
+        <v>7100</v>
       </c>
       <c r="G22" t="n">
-        <v>-11600</v>
+        <v>-30000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1001,23 +1069,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ren En Kong </t>
+          <t>Thomas Gao</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-4800</v>
+        <v>-30000</v>
       </c>
       <c r="D23" t="n">
         <v>-30000</v>
       </c>
       <c r="E23" t="n">
-        <v>-30000</v>
+        <v>117200</v>
       </c>
       <c r="F23" t="n">
-        <v>44200</v>
+        <v>-60000</v>
       </c>
       <c r="G23" t="n">
-        <v>-20600</v>
+        <v>-30000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2800</v>
       </c>
     </row>
     <row r="24">
@@ -1026,23 +1097,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Granth Saxena</t>
+          <t>Jun Law</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48600</v>
+        <v>-30000</v>
       </c>
       <c r="D24" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="E24" t="n">
-        <v>48500</v>
+        <v>79500</v>
       </c>
       <c r="F24" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="G24" t="n">
-        <v>-22900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-10500</v>
       </c>
     </row>
     <row r="25">
@@ -1051,23 +1125,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pouria Rafatmah</t>
+          <t xml:space="preserve">Ren En Kong </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-30000</v>
+        <v>-4800</v>
       </c>
       <c r="D25" t="n">
-        <v>65700</v>
+        <v>-30000</v>
       </c>
       <c r="E25" t="n">
         <v>-30000</v>
       </c>
       <c r="F25" t="n">
-        <v>-30000</v>
+        <v>44200</v>
       </c>
       <c r="G25" t="n">
-        <v>-24300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-20600</v>
       </c>
     </row>
     <row r="26">
@@ -1076,23 +1153,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Granth Saxena</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-30000</v>
+        <v>48600</v>
       </c>
       <c r="D26" t="n">
-        <v>64900</v>
+        <v>-60000</v>
       </c>
       <c r="E26" t="n">
-        <v>-30000</v>
+        <v>48500</v>
       </c>
       <c r="F26" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="G26" t="n">
-        <v>-25100</v>
+        <v>-30000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-22900</v>
       </c>
     </row>
     <row r="27">
@@ -1101,23 +1181,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vance Lam</t>
+          <t>Pouria Rafatmah</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>-30000</v>
       </c>
       <c r="D27" t="n">
-        <v>-30000</v>
+        <v>65700</v>
       </c>
       <c r="E27" t="n">
-        <v>52700</v>
+        <v>-30000</v>
       </c>
       <c r="F27" t="n">
         <v>-30000</v>
       </c>
       <c r="G27" t="n">
-        <v>-37300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-24300</v>
       </c>
     </row>
     <row r="28">
@@ -1126,23 +1209,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liang Heng</t>
+          <t>Vance Lam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51700</v>
+        <v>-30000</v>
       </c>
       <c r="D28" t="n">
         <v>-30000</v>
       </c>
       <c r="E28" t="n">
-        <v>-30000</v>
+        <v>52700</v>
       </c>
       <c r="F28" t="n">
         <v>-30000</v>
       </c>
       <c r="G28" t="n">
-        <v>-38300</v>
+        <v>-30000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-37300</v>
       </c>
     </row>
     <row r="29">
@@ -1151,23 +1237,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bryan Foo</t>
+          <t>Liang Heng</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-30000</v>
+        <v>51700</v>
       </c>
       <c r="D29" t="n">
         <v>-30000</v>
       </c>
       <c r="E29" t="n">
-        <v>69100</v>
+        <v>-30000</v>
       </c>
       <c r="F29" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
       </c>
       <c r="G29" t="n">
-        <v>-50900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-38300</v>
       </c>
     </row>
     <row r="30">
@@ -1176,23 +1265,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gia Huy Nguyen</t>
+          <t>Bryan Foo</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35600</v>
+        <v>-30000</v>
       </c>
       <c r="D30" t="n">
         <v>-30000</v>
       </c>
       <c r="E30" t="n">
-        <v>-30000</v>
+        <v>69100</v>
       </c>
       <c r="F30" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="G30" t="n">
-        <v>-54400</v>
+        <v>-30000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-50900</v>
       </c>
     </row>
     <row r="31">
@@ -1201,14 +1293,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ha Vern Poh</t>
+          <t>Gia Huy Nguyen</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-30000</v>
+        <v>35600</v>
       </c>
       <c r="D31" t="n">
-        <v>30000</v>
+        <v>-30000</v>
       </c>
       <c r="E31" t="n">
         <v>-30000</v>
@@ -1217,7 +1309,10 @@
         <v>-30000</v>
       </c>
       <c r="G31" t="n">
-        <v>-60000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-54400</v>
       </c>
     </row>
     <row r="32">
@@ -1226,22 +1321,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Patrick Grave</t>
+          <t>Ha Vern Poh</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-12800</v>
+        <v>-30000</v>
       </c>
       <c r="D32" t="n">
-        <v>38500</v>
+        <v>30000</v>
       </c>
       <c r="E32" t="n">
-        <v>-55700</v>
+        <v>-30000</v>
       </c>
       <c r="F32" t="n">
         <v>-30000</v>
       </c>
       <c r="G32" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H32" t="n">
         <v>-60000</v>
       </c>
     </row>
@@ -1251,23 +1349,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Michael Shen</t>
+          <t>Patrick Grave</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-30000</v>
+        <v>-12800</v>
       </c>
       <c r="D33" t="n">
-        <v>22000</v>
+        <v>38500</v>
       </c>
       <c r="E33" t="n">
-        <v>-30000</v>
+        <v>-55700</v>
       </c>
       <c r="F33" t="n">
         <v>-30000</v>
       </c>
       <c r="G33" t="n">
-        <v>-68000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-60000</v>
       </c>
     </row>
     <row r="34">
@@ -1276,14 +1377,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vasu Dhawan </t>
+          <t>Michael Shen</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>-30000</v>
       </c>
       <c r="D34" t="n">
-        <v>11100</v>
+        <v>22000</v>
       </c>
       <c r="E34" t="n">
         <v>-30000</v>
@@ -1292,7 +1393,10 @@
         <v>-30000</v>
       </c>
       <c r="G34" t="n">
-        <v>-78900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-68000</v>
       </c>
     </row>
     <row r="35">
@@ -1301,23 +1405,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Felix Choi</t>
+          <t xml:space="preserve">Vasu Dhawan </t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>-30000</v>
       </c>
       <c r="D35" t="n">
-        <v>-30000</v>
+        <v>11100</v>
       </c>
       <c r="E35" t="n">
-        <v>10200</v>
+        <v>-30000</v>
       </c>
       <c r="F35" t="n">
         <v>-30000</v>
       </c>
       <c r="G35" t="n">
-        <v>-79800</v>
+        <v>-30000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-78900</v>
       </c>
     </row>
     <row r="36">
@@ -1326,23 +1433,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leo Morrison</t>
+          <t>Felix Choi</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8100</v>
+        <v>-30000</v>
       </c>
       <c r="D36" t="n">
         <v>-30000</v>
       </c>
       <c r="E36" t="n">
-        <v>-30000</v>
+        <v>10200</v>
       </c>
       <c r="F36" t="n">
         <v>-30000</v>
       </c>
       <c r="G36" t="n">
-        <v>-81900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-79800</v>
       </c>
     </row>
     <row r="37">
@@ -1351,23 +1461,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kang Pi</t>
+          <t>Leo Morrison</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-30000</v>
+        <v>8100</v>
       </c>
       <c r="D37" t="n">
         <v>-30000</v>
       </c>
       <c r="E37" t="n">
-        <v>-4900</v>
+        <v>-30000</v>
       </c>
       <c r="F37" t="n">
         <v>-30000</v>
       </c>
       <c r="G37" t="n">
-        <v>-94900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-81900</v>
       </c>
     </row>
     <row r="38">
@@ -1376,23 +1489,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Om Parikh</t>
+          <t>Kang Pi</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>-30000</v>
       </c>
       <c r="D38" t="n">
-        <v>-9500</v>
+        <v>-30000</v>
       </c>
       <c r="E38" t="n">
-        <v>-30000</v>
+        <v>-4900</v>
       </c>
       <c r="F38" t="n">
         <v>-30000</v>
       </c>
       <c r="G38" t="n">
-        <v>-99500</v>
+        <v>-30000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-94900</v>
       </c>
     </row>
     <row r="39">
@@ -1401,14 +1517,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liam Fitzpatrick</t>
+          <t>Om Parikh</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-19900</v>
+        <v>-30000</v>
       </c>
       <c r="D39" t="n">
-        <v>-30000</v>
+        <v>-9500</v>
       </c>
       <c r="E39" t="n">
         <v>-30000</v>
@@ -1417,7 +1533,10 @@
         <v>-30000</v>
       </c>
       <c r="G39" t="n">
-        <v>-109900</v>
+        <v>-30000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-99500</v>
       </c>
     </row>
     <row r="40">
@@ -1426,11 +1545,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Byron </t>
+          <t>Liam Fitzpatrick</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-30000</v>
+        <v>-19900</v>
       </c>
       <c r="D40" t="n">
         <v>-30000</v>
@@ -1442,7 +1561,10 @@
         <v>-30000</v>
       </c>
       <c r="G40" t="n">
-        <v>-120000</v>
+        <v>-30000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-109900</v>
       </c>
     </row>
     <row r="41">
@@ -1451,7 +1573,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Carsyn Chan</t>
+          <t xml:space="preserve">Byron </t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1467,6 +1589,9 @@
         <v>-30000</v>
       </c>
       <c r="G41" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H41" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1492,6 +1617,9 @@
         <v>-30000</v>
       </c>
       <c r="G42" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H42" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1517,6 +1645,9 @@
         <v>-30000</v>
       </c>
       <c r="G43" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H43" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1542,6 +1673,9 @@
         <v>-30000</v>
       </c>
       <c r="G44" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H44" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1567,6 +1701,9 @@
         <v>-30000</v>
       </c>
       <c r="G45" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H45" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1592,6 +1729,9 @@
         <v>-30000</v>
       </c>
       <c r="G46" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H46" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1617,6 +1757,9 @@
         <v>-30000</v>
       </c>
       <c r="G47" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H47" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1642,6 +1785,9 @@
         <v>-30000</v>
       </c>
       <c r="G48" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H48" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1667,6 +1813,9 @@
         <v>-30000</v>
       </c>
       <c r="G49" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H49" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1692,6 +1841,9 @@
         <v>-30000</v>
       </c>
       <c r="G50" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H50" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1717,6 +1869,9 @@
         <v>-30000</v>
       </c>
       <c r="G51" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H51" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1742,6 +1897,9 @@
         <v>-30000</v>
       </c>
       <c r="G52" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H52" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1767,6 +1925,9 @@
         <v>-30000</v>
       </c>
       <c r="G53" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H53" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1792,6 +1953,9 @@
         <v>-30000</v>
       </c>
       <c r="G54" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H54" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1817,6 +1981,9 @@
         <v>-30000</v>
       </c>
       <c r="G55" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H55" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1842,6 +2009,9 @@
         <v>-30000</v>
       </c>
       <c r="G56" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H56" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1867,6 +2037,9 @@
         <v>-30000</v>
       </c>
       <c r="G57" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H57" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1892,6 +2065,9 @@
         <v>-30000</v>
       </c>
       <c r="G58" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H58" t="n">
         <v>-120000</v>
       </c>
     </row>
@@ -1917,6 +2093,9 @@
         <v>-30000</v>
       </c>
       <c r="G59" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="H59" t="n">
         <v>-120000</v>
       </c>
     </row>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -672,29 +672,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aaron Xu</t>
+          <t>Abhishek Tummalapalli</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>180000</v>
+        <v>-30000</v>
       </c>
       <c r="D8" t="n">
-        <v>-30000</v>
+        <v>47500</v>
       </c>
       <c r="E8" t="n">
-        <v>65100</v>
+        <v>118200</v>
       </c>
       <c r="F8" t="n">
         <v>-30000</v>
       </c>
       <c r="G8" t="n">
-        <v>-30000</v>
+        <v>35100</v>
       </c>
       <c r="H8" t="n">
-        <v>-30000</v>
+        <v>-12000</v>
       </c>
       <c r="I8" t="n">
-        <v>185100</v>
+        <v>188800</v>
       </c>
     </row>
     <row r="9">
@@ -703,29 +703,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Haopengjiang</t>
+          <t>Aaron Xu</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-30000</v>
+        <v>180000</v>
       </c>
       <c r="D9" t="n">
         <v>-30000</v>
       </c>
       <c r="E9" t="n">
-        <v>70700</v>
+        <v>65100</v>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>-30000</v>
       </c>
       <c r="G9" t="n">
-        <v>24000</v>
+        <v>-30000</v>
       </c>
       <c r="H9" t="n">
-        <v>54500</v>
+        <v>-30000</v>
       </c>
       <c r="I9" t="n">
-        <v>179200</v>
+        <v>185100</v>
       </c>
     </row>
     <row r="10">
@@ -734,29 +734,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Richard Shao</t>
+          <t>Haopengjiang</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>197000</v>
+        <v>-30000</v>
       </c>
       <c r="E10" t="n">
-        <v>-30000</v>
+        <v>70700</v>
       </c>
       <c r="F10" t="n">
-        <v>102000</v>
+        <v>30000</v>
       </c>
       <c r="G10" t="n">
-        <v>-90000</v>
+        <v>24000</v>
       </c>
       <c r="H10" t="n">
-        <v>-30000</v>
+        <v>54500</v>
       </c>
       <c r="I10" t="n">
-        <v>179000</v>
+        <v>179200</v>
       </c>
     </row>
     <row r="11">
@@ -765,29 +765,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fangjian Hu</t>
+          <t>Richard Shao</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>-30000</v>
       </c>
       <c r="D11" t="n">
-        <v>86000</v>
+        <v>197000</v>
       </c>
       <c r="E11" t="n">
-        <v>87800</v>
+        <v>-30000</v>
       </c>
       <c r="F11" t="n">
-        <v>-60000</v>
+        <v>102000</v>
       </c>
       <c r="G11" t="n">
-        <v>35100</v>
+        <v>-90000</v>
       </c>
       <c r="H11" t="n">
-        <v>-12000</v>
+        <v>-30000</v>
       </c>
       <c r="I11" t="n">
-        <v>166900</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="12">
@@ -889,20 +889,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Abhishek Tummalapalli</t>
+          <t>Fangjian Hu</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>-30000</v>
       </c>
       <c r="D15" t="n">
-        <v>47500</v>
+        <v>86000</v>
       </c>
       <c r="E15" t="n">
-        <v>118200</v>
+        <v>87800</v>
       </c>
       <c r="F15" t="n">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
       <c r="G15" t="n">
         <v>-30000</v>
@@ -911,7 +911,7 @@
         <v>-30000</v>
       </c>
       <c r="I15" t="n">
-        <v>105700</v>
+        <v>83800</v>
       </c>
     </row>
     <row r="16">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53E3BB4-F360-114F-8FD1-BA783CB02524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9E0C4-1D86-F449-9A22-AD209DE7E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>Rish</t>
+  </si>
+  <si>
+    <t>Sebastian Paz</t>
+  </si>
+  <si>
+    <t>Wiriya Kodchamitr</t>
+  </si>
+  <si>
+    <t>Lawrence Hider </t>
+  </si>
+  <si>
+    <t>Ren En Kong </t>
+  </si>
+  <si>
+    <t>Robin</t>
   </si>
 </sst>
 </file>
@@ -211,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -220,7 +235,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,18 +590,12 @@
       <c r="D2" s="3">
         <v>152300</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>446600</v>
       </c>
@@ -605,18 +613,12 @@
       <c r="D3" s="3">
         <v>94500</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>308500</v>
       </c>
@@ -634,18 +636,12 @@
       <c r="D4" s="3">
         <v>283300</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>283300</v>
       </c>
@@ -655,115 +651,91 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>224200</v>
+        <v>78000</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
+      <c r="E5" s="3">
+        <v>198100</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>224200</v>
+        <v>276100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>1653271</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>224200</v>
       </c>
       <c r="D6" s="3">
-        <v>210500</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>210500</v>
+        <v>224200</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
+      <c r="B7" s="3">
+        <v>1653271</v>
       </c>
       <c r="C7" s="3">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>130000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
+        <v>210500</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>170000</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>1081639</v>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>142800</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>199900</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>142800</v>
+        <v>199900</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -771,86 +743,68 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
-        <v>121000</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
+        <v>130000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>141000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>1357640</v>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="3">
-        <v>135400</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
+        <v>152000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>135400</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+      <c r="B11" s="3">
+        <v>1081639</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>130700</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
+        <v>142800</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>130700</v>
+        <v>142800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -858,57 +812,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>123100</v>
+        <v>121000</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>123100</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
+      <c r="B13" s="3">
+        <v>1357640</v>
       </c>
       <c r="C13" s="3">
-        <v>120300</v>
+        <v>135400</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>120300</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -916,28 +858,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>117800</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
+        <v>130700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>117800</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -945,57 +881,45 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
+      <c r="E15" s="3">
+        <v>125300</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>115700</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>1357624</v>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>123100</v>
       </c>
       <c r="D16" s="3">
-        <v>96400</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>96400</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1003,28 +927,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
-        <v>95600</v>
+        <v>120300</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>95600</v>
+        <v>120300</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1032,28 +950,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>91500</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
+        <v>117800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>91500</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1061,28 +973,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>115700</v>
       </c>
       <c r="D19" s="3">
-        <v>81000</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>81000</v>
+        <v>115700</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1090,86 +996,68 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
+        <v>113000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>78000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
+      <c r="B21" s="3">
+        <v>1357925</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>76000</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>107500</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>76000</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
+      <c r="B22" s="3">
+        <v>1357624</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>74800</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
+        <v>96400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>74800</v>
+        <v>96400</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1177,28 +1065,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
-        <v>69400</v>
+        <v>95600</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>69400</v>
+        <v>95600</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,28 +1088,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>60400</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
+        <v>91500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>60400</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1235,57 +1111,45 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>59000</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
+        <v>81000</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>59000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>1362920</v>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>57200</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
+        <v>76000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>57200</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1293,28 +1157,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>57100</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
+        <v>74800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>57100</v>
+        <v>74800</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1322,28 +1180,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="D28" s="3">
-        <v>55800</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <v>55800</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,28 +1203,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>44400</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
+        <v>60400</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>44400</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1380,28 +1226,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="D30" s="3">
-        <v>43000</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
+        <v>29100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>43000</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1409,86 +1249,68 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>41400</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
+        <v>59000</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>41400</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
+      <c r="B32" s="3">
+        <v>1362920</v>
       </c>
       <c r="C32" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>29100</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
+        <v>57200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>38800</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>1461640</v>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
       <c r="D33" s="3">
-        <v>37000</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
+        <v>57100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>37000</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1496,28 +1318,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>35700</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
+        <v>55800</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>35700</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1525,57 +1341,45 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>32300</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
+        <v>44400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>32300</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>984523</v>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
+        <v>43000</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <v>26000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1583,28 +1387,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
+      <c r="E37" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <v>20000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1612,57 +1410,45 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>13900</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
+        <v>41400</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>13900</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>18</v>
+      <c r="B39" s="3">
+        <v>1461640</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
+        <v>37000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1670,28 +1456,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
+        <v>36900</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1699,28 +1479,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
+        <v>35700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1728,110 +1502,238 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
+        <v>32300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>41</v>
+      <c r="B43" s="3">
+        <v>984523</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="D43" s="3">
-        <v>113000</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>20000</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>13900</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1450367</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I43">
-    <sortCondition descending="1" ref="I2:I43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I50">
+    <sortCondition descending="1" ref="I2:I50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9E0C4-1D86-F449-9A22-AD209DE7E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B319D-5366-F449-BEA7-50DB3E6C7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Robin</t>
+  </si>
+  <si>
+    <t>yiyang zhang</t>
+  </si>
+  <si>
+    <t>Ziqi (George) Yang</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +241,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +548,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,9 +601,15 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="3">
         <v>446600</v>
       </c>
@@ -616,9 +630,15 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
         <v>308500</v>
       </c>
@@ -639,9 +659,15 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
       <c r="I4" s="3">
         <v>283300</v>
       </c>
@@ -662,9 +688,15 @@
       <c r="E5" s="3">
         <v>198100</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
         <v>276100</v>
       </c>
@@ -674,68 +706,86 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3">
-        <v>224200</v>
+        <v>118500</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>139500</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
       <c r="I6" s="3">
-        <v>224200</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>1653271</v>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>224200</v>
       </c>
       <c r="D7" s="3">
-        <v>210500</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="3">
-        <v>210500</v>
+        <v>224200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>210500</v>
       </c>
       <c r="E8" s="3">
-        <v>199900</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
-        <v>199900</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -743,22 +793,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>199900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="3">
-        <v>170000</v>
+        <v>199900</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -766,114 +822,144 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D10" s="3">
-        <v>152000</v>
+        <v>130000</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
       <c r="I10" s="3">
-        <v>152000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>1081639</v>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>142800</v>
+        <v>152000</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
-        <v>142800</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
+      <c r="B12" s="3">
+        <v>1081639</v>
       </c>
       <c r="C12" s="3">
-        <v>121000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>20000</v>
+        <v>142800</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
       <c r="I12" s="3">
-        <v>141000</v>
+        <v>142800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1357640</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>135400</v>
+        <v>121000</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3">
-        <v>135400</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
+      <c r="B14" s="3">
+        <v>1357640</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="D14" s="3">
-        <v>130700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
-        <v>130700</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -881,22 +967,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>130700</v>
       </c>
       <c r="E15" s="3">
-        <v>125300</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
-        <v>125300</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -904,22 +996,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
-        <v>123100</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>125300</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
-        <v>123100</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -927,10 +1025,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>120300</v>
+        <v>123100</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -938,11 +1036,17 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
-        <v>120300</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -950,22 +1054,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>120300</v>
       </c>
       <c r="D18" s="3">
-        <v>117800</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
-        <v>117800</v>
+        <v>120300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -973,22 +1083,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>117800</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
-        <v>115700</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -996,45 +1112,57 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>115700</v>
       </c>
       <c r="D20" s="3">
-        <v>113000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
-        <v>113000</v>
+        <v>115700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>1357925</v>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>113000</v>
       </c>
       <c r="E21" s="3">
-        <v>107500</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
-        <v>107500</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1042,45 +1170,57 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>1357624</v>
+        <v>1357925</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>96400</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>107500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
-        <v>96400</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
+      <c r="B23" s="3">
+        <v>1357624</v>
       </c>
       <c r="C23" s="3">
-        <v>95600</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>96400</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
-        <v>95600</v>
+        <v>96400</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1088,22 +1228,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>95600</v>
       </c>
       <c r="D24" s="3">
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
-        <v>91500</v>
+        <v>95600</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,22 +1257,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>81000</v>
+        <v>91500</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
-        <v>81000</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1134,22 +1286,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>76000</v>
+        <v>81000</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
-        <v>76000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1157,22 +1315,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,22 +1344,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>69400</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
-        <v>69400</v>
+        <v>74800</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,22 +1373,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="D29" s="3">
-        <v>60400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
-        <v>60400</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1226,22 +1402,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>29100</v>
+        <v>60400</v>
       </c>
       <c r="E30" s="3">
-        <v>21500</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1249,68 +1431,86 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="D31" s="3">
-        <v>59000</v>
+        <v>29100</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+        <v>21500</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
-        <v>59000</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>1362920</v>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>57200</v>
+        <v>59000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
-        <v>57200</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
+      <c r="B33" s="3">
+        <v>1362920</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
       <c r="D33" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
       <c r="I33" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1318,22 +1518,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>55800</v>
+        <v>57100</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
-        <v>55800</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1341,22 +1547,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>44400</v>
+        <v>55800</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
       <c r="I35" s="3">
-        <v>44400</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,22 +1576,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
       <c r="I36" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1387,22 +1605,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E37" s="3">
-        <v>42000</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,68 +1634,86 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+        <v>42000</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
-        <v>41400</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>1461640</v>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>37000</v>
+        <v>41400</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
-        <v>37000</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
+      <c r="B40" s="3">
+        <v>1461640</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1479,22 +1721,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
       <c r="I41" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1502,56 +1750,68 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>32300</v>
+        <v>35700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
       <c r="I42" s="3">
-        <v>32300</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <v>984523</v>
+      <c r="B43" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C43" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>32300</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
       <c r="I43" s="3">
-        <v>26000</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>30</v>
+      <c r="B44" s="3">
+        <v>984523</v>
       </c>
       <c r="C44" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -1559,11 +1819,17 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
       <c r="I44" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1571,53 +1837,65 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D45" s="3">
-        <v>13900</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
       <c r="I45" s="3">
-        <v>13900</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <v>1450367</v>
+      <c r="B46" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="E46" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
       <c r="I46" s="3">
-        <v>10000</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>18</v>
+      <c r="B47" s="3">
+        <v>1450367</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -1626,13 +1904,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+        <v>10000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1640,7 +1924,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -1651,9 +1935,15 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -1663,7 +1953,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -1674,9 +1964,15 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
@@ -1686,26 +1982,58 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
@@ -1732,8 +2060,8 @@
       <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I50">
-    <sortCondition descending="1" ref="I2:I50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I51">
+    <sortCondition descending="1" ref="I2:I51"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B319D-5366-F449-BEA7-50DB3E6C7E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59494FE-1CC3-E642-9E55-0CD8D9DE8BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>Ziqi (George) Yang</t>
+  </si>
+  <si>
+    <t>Ameya Mahesh </t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Aaditya Sharma</t>
+  </si>
+  <si>
+    <t>Ben Morrison</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -240,9 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +558,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,45 +612,37 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
+        <v>70000</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
-        <v>446600</v>
+        <v>516600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
+      <c r="B3" s="3">
+        <v>1357624</v>
       </c>
       <c r="C3" s="3">
-        <v>214000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>94500</v>
+        <v>96400</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>308500</v>
+        <v>396400</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -648,28 +650,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>57400</v>
       </c>
       <c r="D4" s="3">
-        <v>283300</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
+        <v>235800</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>283300</v>
+        <v>293200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -677,28 +675,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>283300</v>
       </c>
       <c r="E5" s="3">
-        <v>198100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>276100</v>
+        <v>283300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>118500</v>
+        <v>214000</v>
       </c>
       <c r="D6" s="3">
-        <v>139500</v>
+        <v>64500</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -720,14 +714,10 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>258000</v>
+        <v>278500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -735,57 +725,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
-        <v>224200</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>111200</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
+        <v>106500</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>224200</v>
+        <v>276700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D8" s="3">
-        <v>210500</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>198100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>210500</v>
+        <v>276100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -793,28 +775,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="E9" s="3">
-        <v>199900</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
+        <v>95500</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>199900</v>
+        <v>265500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -822,13 +800,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>40000</v>
+        <v>118500</v>
       </c>
       <c r="D10" s="3">
-        <v>130000</v>
+        <v>139500</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -836,14 +814,10 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>170000</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -851,42 +825,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>152000</v>
+        <v>41400</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>136800</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
+        <v>49800</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>152000</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1081639</v>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>224200</v>
       </c>
       <c r="D12" s="3">
-        <v>142800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -894,28 +864,24 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>142800</v>
+        <v>224200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="3">
+        <v>1653271</v>
       </c>
       <c r="C13" s="3">
-        <v>121000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>20000</v>
+        <v>210500</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -923,43 +889,35 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>141000</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>1357640</v>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>135400</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>55800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>130600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>135400</v>
+        <v>186400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -967,28 +925,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>130700</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>139900</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>130700</v>
+        <v>184900</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -996,28 +950,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>91500</v>
       </c>
       <c r="E16" s="3">
-        <v>125300</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
+        <v>89500</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>125300</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1025,28 +975,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3">
-        <v>123100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>152000</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
+        <v>21500</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>123100</v>
+        <v>173500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1054,10 +1000,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
-        <v>120300</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1066,16 +1012,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
+        <v>157500</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>120300</v>
+        <v>157500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,28 +1025,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>117800</v>
+        <v>113000</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
+        <v>155000</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>117800</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,42 +1050,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
+        <v>32600</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>115700</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="B21" s="3">
+        <v>1081639</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>113000</v>
+        <v>142800</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1155,43 +1089,35 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>113000</v>
+        <v>142800</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>1357925</v>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>121000</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="3">
-        <v>107500</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>107500</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1199,13 +1125,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>1357624</v>
+        <v>1357640</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="D23" s="3">
-        <v>96400</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1213,14 +1139,10 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>96400</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1228,13 +1150,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3">
-        <v>95600</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>130700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1242,14 +1164,10 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>95600</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1257,28 +1175,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>125300</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>91500</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,13 +1200,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>123100</v>
       </c>
       <c r="D26" s="3">
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1300,43 +1214,35 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>81000</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
+      <c r="B27" s="3">
+        <v>1362920</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>76000</v>
+        <v>57200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
+        <v>65000</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>76000</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1344,13 +1250,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>120300</v>
       </c>
       <c r="D28" s="3">
-        <v>74800</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -1358,14 +1264,10 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <v>74800</v>
+        <v>120300</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1373,13 +1275,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
-        <v>69400</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>117800</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1387,14 +1289,10 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>69400</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1402,13 +1300,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>115700</v>
       </c>
       <c r="D30" s="3">
-        <v>60400</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -1416,43 +1314,35 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>60400</v>
+        <v>115700</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
+      <c r="B31" s="3">
+        <v>1357925</v>
       </c>
       <c r="C31" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>29100</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>21500</v>
+        <v>107500</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>60300</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1460,42 +1350,38 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>59000</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>1362920</v>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>95600</v>
       </c>
       <c r="D33" s="3">
-        <v>57200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1503,14 +1389,10 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>57200</v>
+        <v>95600</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1518,28 +1400,24 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>57100</v>
+        <v>74800</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>57100</v>
+        <v>89800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1547,13 +1425,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>55800</v>
+        <v>81000</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1561,14 +1439,10 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>55800</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1576,28 +1450,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
+        <v>79400</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <v>44400</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1605,13 +1475,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>43000</v>
+        <v>76000</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -1619,14 +1489,10 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <v>43000</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1634,28 +1500,24 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>42000</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1663,57 +1525,49 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
+        <v>66200</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>41400</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>1461640</v>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="D40" s="3">
-        <v>37000</v>
+        <v>29100</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3">
-        <v>37000</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1721,13 +1575,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>36900</v>
+        <v>57100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1735,14 +1589,10 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3">
-        <v>36900</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,13 +1600,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>35700</v>
+        <v>44400</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1764,14 +1614,10 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <v>35700</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1779,28 +1625,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>32300</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>32300</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1808,13 +1650,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>984523</v>
+        <v>1461640</v>
       </c>
       <c r="C44" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1822,14 +1664,10 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <v>26000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,13 +1675,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>36900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1851,14 +1689,10 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>20000</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1866,13 +1700,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>13900</v>
+        <v>35700</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1880,43 +1714,35 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <v>13900</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <v>1450367</v>
+      <c r="B47" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>32300</v>
       </c>
       <c r="E47" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>10000</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1924,13 +1750,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1938,25 +1764,21 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>19</v>
+      <c r="B49" s="3">
+        <v>984523</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -1967,14 +1789,10 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -1996,62 +1814,186 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <v>13900</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1450367</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1464487</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
@@ -2060,8 +2002,8 @@
       <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I51">
-    <sortCondition descending="1" ref="I2:I51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I57">
+    <sortCondition descending="1" ref="I2:I57"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59494FE-1CC3-E642-9E55-0CD8D9DE8BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C261B9-6F63-694A-BAE4-D09A08BDBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Wiriya Kodchamitr</t>
   </si>
   <si>
-    <t>Lawrence Hider </t>
-  </si>
-  <si>
     <t>Ren En Kong </t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Ziqi (George) Yang</t>
   </si>
   <si>
-    <t>Ameya Mahesh </t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -182,6 +176,9 @@
   </si>
   <si>
     <t>Ben Morrison</t>
+  </si>
+  <si>
+    <t>Jingxin Liu</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,7 +611,9 @@
       <c r="F2" s="3">
         <v>70000</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>516600</v>
@@ -624,50 +623,54 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1357624</v>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>96400</v>
+        <v>283300</v>
       </c>
       <c r="E3" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>175700</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>396400</v>
+        <v>459000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
+      <c r="B4" s="3">
+        <v>1357624</v>
       </c>
       <c r="C4" s="3">
-        <v>57400</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>96400</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F4" s="3">
-        <v>235800</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>293200</v>
+        <v>396400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -675,24 +678,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D5" s="3">
-        <v>283300</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>198100</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>101600</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>283300</v>
+        <v>377700</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,18 +711,20 @@
         <v>214000</v>
       </c>
       <c r="D6" s="3">
-        <v>64500</v>
+        <v>34500</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>110700</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>278500</v>
+        <v>359200</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -725,24 +732,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>59000</v>
+        <v>113000</v>
       </c>
       <c r="E7" s="3">
-        <v>111200</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>106500</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>155000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>200000</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>276700</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -750,24 +759,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="E8" s="3">
-        <v>198100</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>71000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>197500</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>276100</v>
+        <v>343300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -775,24 +786,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
-        <v>40000</v>
+        <v>118500</v>
       </c>
       <c r="D9" s="3">
-        <v>130000</v>
+        <v>139500</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>95500</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>75000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>265500</v>
+        <v>333000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -803,21 +816,23 @@
         <v>48</v>
       </c>
       <c r="C10" s="3">
-        <v>118500</v>
+        <v>57400</v>
       </c>
       <c r="D10" s="3">
-        <v>139500</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>235800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>258000</v>
+        <v>293200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -825,24 +840,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>41400</v>
+        <v>55800</v>
       </c>
       <c r="E11" s="3">
-        <v>136800</v>
+        <v>130600</v>
       </c>
       <c r="F11" s="3">
-        <v>49800</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>95000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>228000</v>
+        <v>281400</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -850,49 +867,53 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>224200</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>111200</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>106500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>224200</v>
+        <v>276700</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>1653271</v>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
-        <v>210500</v>
+        <v>130000</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>95500</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>210500</v>
+        <v>265500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -900,24 +921,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>55800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>130600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>66200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>193600</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>186400</v>
+        <v>259800</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -925,49 +948,53 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>224200</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>139900</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>184900</v>
+        <v>224200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
+      <c r="B16" s="3">
+        <v>1653271</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>91500</v>
+        <v>210500</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>89500</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>181000</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -975,24 +1002,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>152000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>202000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <v>173500</v>
+        <v>202000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1000,24 +1029,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>136800</v>
       </c>
       <c r="F18" s="3">
-        <v>157500</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>19800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>157500</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1025,24 +1056,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>121000</v>
       </c>
       <c r="D19" s="3">
-        <v>113000</v>
+        <v>20000</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>155000</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>51000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>155000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1050,49 +1083,53 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>72200</v>
+        <v>139900</v>
       </c>
       <c r="F20" s="3">
-        <v>32600</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>45000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <v>147800</v>
+        <v>184900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>1081639</v>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>142800</v>
+        <v>91500</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>89500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <v>142800</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1100,63 +1137,67 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
-        <v>121000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>20000</v>
+        <v>30400</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>140000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <v>141000</v>
+        <v>170400</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>1357640</v>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="3">
-        <v>135400</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>32600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <v>135400</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
+      <c r="B24" s="3">
+        <v>1081639</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>130700</v>
+        <v>142800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1164,35 +1205,39 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <v>130700</v>
+        <v>142800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
+      <c r="B25" s="3">
+        <v>1357640</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>125300</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>125300</v>
+        <v>135400</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1200,13 +1245,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>123100</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>130700</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1214,35 +1259,39 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>123100</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>1362920</v>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>57200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>125300</v>
       </c>
       <c r="F27" s="3">
-        <v>65000</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <v>122200</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1250,10 +1299,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
-        <v>120300</v>
+        <v>123100</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1264,35 +1313,39 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3">
-        <v>120300</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
+      <c r="B29" s="3">
+        <v>1362920</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>117800</v>
+        <v>57200</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>65000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>117800</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1300,10 +1353,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3">
-        <v>115700</v>
+        <v>120300</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -1314,35 +1367,39 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>115700</v>
+        <v>120300</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>1357925</v>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>117800</v>
       </c>
       <c r="E31" s="3">
-        <v>107500</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>107500</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1350,49 +1407,53 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>115700</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>102400</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>102400</v>
+        <v>115700</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>23</v>
+      <c r="B33" s="3">
+        <v>1357925</v>
       </c>
       <c r="C33" s="3">
-        <v>95600</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>107500</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <v>95600</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1400,24 +1461,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>74800</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>15000</v>
+        <v>102400</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
-        <v>89800</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1425,13 +1488,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>95600</v>
       </c>
       <c r="D35" s="3">
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1439,10 +1502,12 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <v>81000</v>
+        <v>95600</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1450,24 +1515,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>29100</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="F36" s="3">
-        <v>79400</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>42100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <v>79400</v>
+        <v>92700</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1475,24 +1542,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>81500</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
-        <v>76000</v>
+        <v>81500</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1500,13 +1569,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3">
-        <v>69400</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1514,10 +1583,12 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>69400</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1525,7 +1596,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -1537,12 +1608,14 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>66200</v>
-      </c>
-      <c r="G39" s="3"/>
+        <v>79400</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>66200</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1550,24 +1623,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3">
-        <v>29100</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>78900</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
-        <v>60300</v>
+        <v>78900</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1575,13 +1650,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>57100</v>
+        <v>76000</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1589,10 +1664,12 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
-        <v>57100</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1600,13 +1677,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="D42" s="3">
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1614,10 +1691,12 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <v>44400</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,38 +1704,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>57100</v>
       </c>
       <c r="E43" s="3">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>42000</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <v>1461640</v>
+      <c r="B44" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>37000</v>
+        <v>44400</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1664,10 +1745,12 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <v>37000</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1675,38 +1758,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>36900</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>36900</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>42</v>
+      <c r="B46" s="3">
+        <v>1461640</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1714,10 +1799,12 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1725,13 +1812,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>32300</v>
+        <v>35700</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1739,10 +1826,12 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>32300</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,13 +1839,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1764,10 +1853,12 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1789,7 +1880,9 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3">
         <v>26000</v>
@@ -1814,7 +1907,9 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3">
         <v>20000</v>
@@ -1839,7 +1934,9 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
         <v>13900</v>
@@ -1864,7 +1961,9 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3">
         <v>10000</v>
@@ -1875,13 +1974,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -1889,10 +1988,12 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -1914,7 +2015,9 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3">
         <v>0</v>
@@ -1925,7 +2028,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -1939,7 +2042,9 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3">
         <v>0</v>
@@ -1949,8 +2054,8 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>51</v>
+      <c r="B56" s="3">
+        <v>1464487</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -1964,36 +2069,24 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1464487</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
@@ -2002,8 +2095,8 @@
       <c r="A59" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I57">
-    <sortCondition descending="1" ref="I2:I57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I56">
+    <sortCondition descending="1" ref="I2:I56"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C261B9-6F63-694A-BAE4-D09A08BDBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9505B74-5CF5-DA42-836F-31C196CC38C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Jingxin Liu</t>
+  </si>
+  <si>
+    <t>Hanryk Li</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,26 +600,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3">
-        <v>294300</v>
+        <v>57400</v>
       </c>
       <c r="D2" s="3">
-        <v>152300</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>70000</v>
+        <v>235800</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>289400</v>
+      </c>
       <c r="I2" s="3">
-        <v>516600</v>
+        <v>582600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -624,26 +629,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>294300</v>
       </c>
       <c r="D3" s="3">
-        <v>283300</v>
+        <v>152300</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>175700</v>
+        <v>70000</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3">
-        <v>459000</v>
+        <v>516600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -666,11 +673,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>99400</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
       <c r="I4" s="3">
-        <v>396400</v>
+        <v>495800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -678,26 +687,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>283300</v>
       </c>
       <c r="E5" s="3">
-        <v>198100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>145700</v>
       </c>
       <c r="G5" s="3">
-        <v>101600</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>62400</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
       <c r="I5" s="3">
-        <v>377700</v>
+        <v>491400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -705,26 +716,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>214000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>110700</v>
+        <v>202000</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>230000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
       <c r="I6" s="3">
-        <v>359200</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -732,26 +745,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>184000</v>
       </c>
       <c r="D7" s="3">
-        <v>113000</v>
+        <v>64500</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>155000</v>
+        <v>110700</v>
       </c>
       <c r="G7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>128000</v>
+      </c>
       <c r="I7" s="3">
-        <v>355000</v>
+        <v>422700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -759,26 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>118500</v>
       </c>
       <c r="D8" s="3">
-        <v>74800</v>
+        <v>139500</v>
       </c>
       <c r="E8" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>71000</v>
+        <v>75000</v>
       </c>
       <c r="G8" s="3">
-        <v>197500</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>151100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
-        <v>343300</v>
+        <v>409100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -786,26 +803,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
-        <v>118500</v>
+        <v>40000</v>
       </c>
       <c r="D9" s="3">
-        <v>139500</v>
+        <v>130000</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>75000</v>
+        <v>95500</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>159800</v>
+      </c>
       <c r="I9" s="3">
-        <v>333000</v>
+        <v>385300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -813,26 +832,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
-        <v>57400</v>
+        <v>78000</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>198100</v>
       </c>
       <c r="F10" s="3">
-        <v>235800</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>101600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
       <c r="I10" s="3">
-        <v>293200</v>
+        <v>377700</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -840,26 +861,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>55800</v>
+        <v>74800</v>
       </c>
       <c r="E11" s="3">
-        <v>130600</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="3">
-        <v>95000</v>
+        <v>71000</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>197500</v>
+      </c>
+      <c r="H11" s="3">
+        <v>104500</v>
+      </c>
       <c r="I11" s="3">
-        <v>281400</v>
+        <v>376800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -884,9 +907,11 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>152100</v>
+      </c>
       <c r="I12" s="3">
-        <v>276700</v>
+        <v>369800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -894,26 +919,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>95500</v>
+        <v>66200</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>193600</v>
+      </c>
+      <c r="H13" s="3">
+        <v>102900</v>
+      </c>
       <c r="I13" s="3">
-        <v>265500</v>
+        <v>362700</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -921,26 +948,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>55800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>130600</v>
       </c>
       <c r="F14" s="3">
-        <v>66200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>193600</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>175000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
-        <v>259800</v>
+        <v>361400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -948,26 +977,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3">
-        <v>224200</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>113000</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>200000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
-        <v>224200</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -975,26 +1006,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1653271</v>
+        <v>1081639</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>210500</v>
+        <v>142800</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>175700</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
-        <v>210500</v>
+        <v>318500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1002,26 +1035,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>91500</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>202000</v>
+        <v>89500</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
-        <v>202000</v>
+        <v>316400</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1029,26 +1064,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>136800</v>
+        <v>139900</v>
       </c>
       <c r="F18" s="3">
-        <v>19800</v>
+        <v>45000</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>105000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
-        <v>198000</v>
+        <v>289900</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1056,53 +1093,57 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>121000</v>
+        <v>224200</v>
       </c>
       <c r="D19" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
-        <v>192000</v>
+        <v>224200</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
+      <c r="B20" s="3">
+        <v>1653271</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>210500</v>
       </c>
       <c r="E20" s="3">
-        <v>139900</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
-        <v>184900</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1110,26 +1151,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>91500</v>
+        <v>41400</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>136800</v>
       </c>
       <c r="F21" s="3">
-        <v>89500</v>
+        <v>19800</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
-        <v>181000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1137,26 +1180,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>121000</v>
       </c>
       <c r="D22" s="3">
-        <v>30400</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>140000</v>
+        <v>51000</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
-        <v>170400</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1164,67 +1209,71 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="E23" s="3">
-        <v>72200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>32600</v>
+        <v>140000</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
-        <v>147800</v>
+        <v>184400</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>1081639</v>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>142800</v>
+        <v>43000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>32600</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
-        <v>142800</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>1357640</v>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>135400</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>130700</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -1235,9 +1284,11 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
-        <v>135400</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1245,16 +1296,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>130700</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>125300</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1262,9 +1313,11 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
-        <v>130700</v>
+        <v>125300</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1272,16 +1325,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>123100</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>125300</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1289,63 +1342,69 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
-        <v>125300</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
+      <c r="B28" s="3">
+        <v>1362920</v>
       </c>
       <c r="C28" s="3">
-        <v>123100</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
-        <v>123100</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>1362920</v>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>120300</v>
       </c>
       <c r="D29" s="3">
-        <v>57200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
-        <v>122200</v>
+        <v>120300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,26 +1412,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>120300</v>
+        <v>9700</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>29100</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>42100</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>48800</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
-        <v>120300</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1397,7 +1458,9 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
         <v>117800</v>
       </c>
@@ -1424,7 +1487,9 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
         <v>115700</v>
       </c>
@@ -1433,8 +1498,8 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>1357925</v>
+      <c r="B33" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1443,25 +1508,27 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>107500</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>109300</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
       <c r="I33" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
+      <c r="B34" s="3">
+        <v>1357925</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -1470,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>102400</v>
+        <v>107500</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1478,9 +1545,11 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
-        <v>102400</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1488,16 +1557,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3">
-        <v>95600</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1505,9 +1574,11 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
       <c r="I35" s="3">
-        <v>95600</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1515,26 +1586,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3">
-        <v>9700</v>
+        <v>95600</v>
       </c>
       <c r="D36" s="3">
-        <v>29100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>42100</v>
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
       <c r="I36" s="3">
-        <v>92700</v>
+        <v>95600</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1559,7 +1632,9 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
         <v>81500</v>
       </c>
@@ -1586,7 +1661,9 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
         <v>81000</v>
       </c>
@@ -1613,7 +1690,9 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
         <v>79400</v>
       </c>
@@ -1640,7 +1719,9 @@
       <c r="G40" s="3">
         <v>78900</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
         <v>78900</v>
       </c>
@@ -1667,7 +1748,9 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
       <c r="I41" s="3">
         <v>76000</v>
       </c>
@@ -1694,7 +1777,9 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
       <c r="I42" s="3">
         <v>69400</v>
       </c>
@@ -1721,7 +1806,9 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
       <c r="I43" s="3">
         <v>57100</v>
       </c>
@@ -1731,16 +1818,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1748,26 +1835,28 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
       <c r="I44" s="3">
-        <v>44400</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>44</v>
+      <c r="B45" s="3">
+        <v>1461640</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E45" s="3">
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1775,23 +1864,25 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
       <c r="I45" s="3">
-        <v>42000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <v>1461640</v>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>37000</v>
+        <v>35700</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1802,9 +1893,11 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
       <c r="I46" s="3">
-        <v>37000</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1812,13 +1905,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>35700</v>
+        <v>32300</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1829,9 +1922,11 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
       <c r="I47" s="3">
-        <v>35700</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1839,13 +1934,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1856,9 +1951,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
       <c r="I48" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1883,7 +1980,9 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
       <c r="I49" s="3">
         <v>26000</v>
       </c>
@@ -1910,7 +2009,9 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
       <c r="I50" s="3">
         <v>20000</v>
       </c>
@@ -1937,7 +2038,9 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
       <c r="I51" s="3">
         <v>13900</v>
       </c>
@@ -1964,7 +2067,9 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
       <c r="I52" s="3">
         <v>10000</v>
       </c>
@@ -1991,7 +2096,9 @@
       <c r="G53" s="3">
         <v>0</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
       <c r="I53" s="3">
         <v>6900</v>
       </c>
@@ -2001,7 +2108,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -2018,7 +2125,9 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2028,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -2045,7 +2154,9 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
       <c r="I55" s="3">
         <v>0</v>
       </c>
@@ -2072,7 +2183,9 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F691C3-CC1A-7F45-9CE4-1F84957B9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77BBC-9990-9A41-B30E-074CFCD24D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -246,6 +246,111 @@
   </si>
   <si>
     <t>Akshat Jain</t>
+  </si>
+  <si>
+    <t>Brendan Leck</t>
+  </si>
+  <si>
+    <t>Jeremy Larsen </t>
+  </si>
+  <si>
+    <t>Ashwin Seshadari </t>
+  </si>
+  <si>
+    <t>Quyen</t>
+  </si>
+  <si>
+    <t>Luna Kwang</t>
+  </si>
+  <si>
+    <t>Joseph Lee</t>
+  </si>
+  <si>
+    <t>Miraz Rai</t>
+  </si>
+  <si>
+    <t>Robert joseph</t>
+  </si>
+  <si>
+    <t>Hieu Chau</t>
+  </si>
+  <si>
+    <t>David Suson</t>
+  </si>
+  <si>
+    <t>Mayank Das</t>
+  </si>
+  <si>
+    <t>Rensei Shimoyama</t>
+  </si>
+  <si>
+    <t>Dillon Chen</t>
+  </si>
+  <si>
+    <t>Marcus Chui</t>
+  </si>
+  <si>
+    <t>Graedy Keating</t>
+  </si>
+  <si>
+    <t>Gordon Wu</t>
+  </si>
+  <si>
+    <t>David Yue</t>
+  </si>
+  <si>
+    <t>Oliver C</t>
+  </si>
+  <si>
+    <t>Cameron lovett</t>
+  </si>
+  <si>
+    <t>Haoqian Zhang</t>
+  </si>
+  <si>
+    <t>Mohammed Affan Syed</t>
+  </si>
+  <si>
+    <t>Liyao Ren</t>
+  </si>
+  <si>
+    <t>Xuanhan Li</t>
+  </si>
+  <si>
+    <t>Kevin Yan </t>
+  </si>
+  <si>
+    <t>Mikoto Saito </t>
+  </si>
+  <si>
+    <t>Evan Jia</t>
+  </si>
+  <si>
+    <t>Ben Kao</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Pulkit</t>
+  </si>
+  <si>
+    <t>Kainaat (kaya)</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Eu Jie Sern</t>
+  </si>
+  <si>
+    <t>Gia Huy Nguyen</t>
+  </si>
+  <si>
+    <t>Pramath Mehta</t>
   </si>
 </sst>
 </file>
@@ -603,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>230400</v>
+        <v>85000</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -668,7 +773,7 @@
       </c>
       <c r="I2" s="1">
         <f>SUM(C2:H2)</f>
-        <v>230400</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -676,13 +781,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
-        <v>201000</v>
+        <v>83000</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>175300</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -698,7 +803,7 @@
       </c>
       <c r="I3" s="1">
         <f>SUM(C3:H3)</f>
-        <v>201000</v>
+        <v>258300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>199000</v>
+        <v>230400</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -728,7 +833,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(C4:H4)</f>
-        <v>199000</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -736,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
-        <v>127400</v>
+        <v>209100</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -758,7 +863,7 @@
       </c>
       <c r="I5" s="1">
         <f>SUM(C5:H5)</f>
-        <v>127400</v>
+        <v>209100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -766,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
-        <v>127200</v>
+        <v>201000</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -788,7 +893,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(C6:H6)</f>
-        <v>127200</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>120000</v>
+        <v>199000</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -818,7 +923,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>120000</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -826,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
-        <v>93500</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>193900</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -848,7 +953,7 @@
       </c>
       <c r="I8" s="1">
         <f>SUM(C8:H8)</f>
-        <v>93500</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -862,7 +967,7 @@
         <v>87400</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>90400</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -878,7 +983,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>87400</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -886,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>172300</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -908,7 +1013,7 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>85000</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -916,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>83000</v>
+        <v>150400</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -938,7 +1043,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
-        <v>83000</v>
+        <v>150400</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -946,13 +1051,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>83000</v>
+        <v>65400</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -968,7 +1073,7 @@
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>83000</v>
+        <v>149900</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -976,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
-        <v>68700</v>
+        <v>129500</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -998,7 +1103,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>68700</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1006,10 +1111,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>65400</v>
+        <v>127400</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1028,7 +1133,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(C14:H14)</f>
-        <v>65400</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1036,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>59500</v>
+        <v>127200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1058,7 +1163,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(C15:H15)</f>
-        <v>59500</v>
+        <v>127200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1066,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>125900</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1088,7 +1193,7 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(C16:H16)</f>
-        <v>50000</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
-        <v>37000</v>
+        <v>120000</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1118,7 +1223,7 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(C17:H17)</f>
-        <v>37000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1126,13 +1231,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>119800</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1148,7 +1253,7 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(C18:H18)</f>
-        <v>33800</v>
+        <v>119800</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>110200</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1178,7 +1283,7 @@
       </c>
       <c r="I19" s="1">
         <f>SUM(C19:H19)</f>
-        <v>27300</v>
+        <v>110200</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,13 +1291,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>99700</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1208,7 +1313,7 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(C20:H20)</f>
-        <v>4600</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1216,10 +1321,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>94600</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1238,7 +1343,7 @@
       </c>
       <c r="I21" s="1">
         <f>SUM(C21:H21)</f>
-        <v>0</v>
+        <v>94600</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1246,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>93500</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1268,7 +1373,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUM(C22:H22)</f>
-        <v>0</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1276,13 +1381,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>71600</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1298,7 +1403,7 @@
       </c>
       <c r="I23" s="1">
         <f>SUM(C23:H23)</f>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,9 +1411,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C24" s="1">
+        <v>83000</v>
+      </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
@@ -1326,7 +1433,7 @@
       </c>
       <c r="I24" s="1">
         <f>SUM(C24:H24)</f>
-        <v>0</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1334,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1356,7 +1463,7 @@
       </c>
       <c r="I25" s="1">
         <f>SUM(C25:H25)</f>
-        <v>0</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,10 +1471,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1386,7 +1493,7 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(C26:H26)</f>
-        <v>0</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1394,10 +1501,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1416,7 +1523,7 @@
       </c>
       <c r="I27" s="1">
         <f>SUM(C27:H27)</f>
-        <v>0</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1446,7 +1553,7 @@
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
-        <v>0</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1454,10 +1561,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1476,7 +1583,7 @@
       </c>
       <c r="I29" s="1">
         <f>SUM(C29:H29)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1484,10 +1591,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1506,7 +1613,7 @@
       </c>
       <c r="I30" s="1">
         <f>SUM(C30:H30)</f>
-        <v>0</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1514,10 +1621,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1536,7 +1643,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUM(C31:H31)</f>
-        <v>0</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1544,10 +1651,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1566,7 +1673,7 @@
       </c>
       <c r="I32" s="1">
         <f>SUM(C32:H32)</f>
-        <v>0</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1574,10 +1681,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1596,7 +1703,7 @@
       </c>
       <c r="I33" s="1">
         <f>SUM(C33:H33)</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1604,7 +1711,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -1634,7 +1741,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1664,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1694,7 +1801,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1724,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1754,7 +1861,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1784,7 +1891,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1814,7 +1921,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -1844,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1874,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -1904,7 +2011,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -1934,7 +2041,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1964,7 +2071,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1994,7 +2101,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2024,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2054,7 +2161,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2084,7 +2191,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2114,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2144,7 +2251,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2174,7 +2281,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2204,7 +2311,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2234,7 +2341,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2264,7 +2371,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2294,7 +2401,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2324,9 +2431,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
@@ -2352,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2382,7 +2491,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -2412,7 +2521,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2442,7 +2551,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -2472,7 +2581,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -2498,554 +2607,1504 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f>SUM(C64:H64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f>SUM(C65:H65)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <f>SUM(C66:H66)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <f>SUM(C67:H67)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <f>SUM(C68:H68)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <f>SUM(C69:H69)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <f>SUM(C70:H70)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <f>SUM(C71:H71)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <f>SUM(C72:H72)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <f>SUM(C73:H73)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <f>SUM(C74:H74)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <f>SUM(C75:H75)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <f>SUM(C76:H76)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <f>SUM(C77:H77)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <f>SUM(C78:H78)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <f>SUM(C79:H79)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <f>SUM(C80:H80)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <f>SUM(C81:H81)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <f>SUM(C82:H82)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <f>SUM(C83:H83)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <f>SUM(C84:H84)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <f>SUM(C85:H85)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <f>SUM(C86:H86)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <f>SUM(C87:H87)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <f>SUM(C88:H88)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <f>SUM(C89:H89)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <f>SUM(C90:H90)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <f>SUM(C91:H91)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <f>SUM(C92:H92)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <f>SUM(C93:H93)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <f>SUM(C94:H94)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <f>SUM(C95:H95)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <f>SUM(C96:H96)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <f>SUM(C97:H97)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <f>SUM(C98:H98)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <f>SUM(C99:H99)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <f>SUM(C100:H100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <f>SUM(C101:H101)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <f>SUM(C102:H102)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <f>SUM(C103:H103)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <f>SUM(C104:H104)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <f>SUM(C105:H105)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <f>SUM(C106:H106)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <f>SUM(C107:H107)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <f>SUM(C108:H108)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <f>SUM(C109:H109)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <f>SUM(C110:H110)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <f>SUM(C111:H111)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <f>SUM(C112:H112)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <f>SUM(C113:H113)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
@@ -3257,8 +4316,8 @@
       <c r="I132" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I63">
-    <sortCondition descending="1" ref="I2:I63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I113">
+    <sortCondition descending="1" ref="I2:I113"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77BBC-9990-9A41-B30E-074CFCD24D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8AD2E-BF3B-6A41-BAAF-BFF9D9C73AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Pramath Mehta</t>
+  </si>
+  <si>
+    <t>Jaochun Zhang (Oscar)</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,7 +713,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -773,7 +777,7 @@
       </c>
       <c r="I2" s="1">
         <f>SUM(C2:H2)</f>
-        <v>355000</v>
+        <v>563000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -781,13 +785,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>83000</v>
+        <v>85000</v>
       </c>
       <c r="D3" s="1">
-        <v>175300</v>
+        <v>270000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -803,7 +807,7 @@
       </c>
       <c r="I3" s="1">
         <f>SUM(C3:H3)</f>
-        <v>258300</v>
+        <v>355000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -811,16 +815,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
-        <v>230400</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>181000</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -833,7 +837,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(C4:H4)</f>
-        <v>230400</v>
+        <v>317800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -841,16 +845,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
-        <v>209100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>275800</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -863,7 +867,7 @@
       </c>
       <c r="I5" s="1">
         <f>SUM(C5:H5)</f>
-        <v>209100</v>
+        <v>275800</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -871,15 +875,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
-        <v>201000</v>
+        <v>83000</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+        <v>175300</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="1">
@@ -893,7 +897,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(C6:H6)</f>
-        <v>201000</v>
+        <v>258300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -901,16 +905,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>199000</v>
+        <v>65400</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>104000</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -923,7 +927,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>199000</v>
+        <v>253900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,13 +935,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>209100</v>
       </c>
       <c r="D8" s="1">
-        <v>193900</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -953,7 +957,7 @@
       </c>
       <c r="I8" s="1">
         <f>SUM(C8:H8)</f>
-        <v>193900</v>
+        <v>209100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -961,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>87400</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>90400</v>
+        <v>59500</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>143100</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -983,7 +987,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>177800</v>
+        <v>202600</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -991,13 +995,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>201000</v>
       </c>
       <c r="D10" s="1">
-        <v>172300</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1013,7 +1017,7 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>172300</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1021,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>150400</v>
+        <v>199000</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1043,7 +1047,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
-        <v>150400</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1051,13 +1055,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
-        <v>65400</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>84500</v>
+        <v>193900</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1073,7 +1077,7 @@
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>149900</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1081,13 +1085,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>129500</v>
+        <v>87400</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>90400</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1103,7 +1107,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>129500</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1111,13 +1115,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>172300</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1133,7 +1137,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(C14:H14)</f>
-        <v>127400</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1141,10 +1145,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>127200</v>
+        <v>150400</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1163,7 +1167,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(C15:H15)</f>
-        <v>127200</v>
+        <v>150400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,16 +1175,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>125900</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>133700</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1193,7 +1197,7 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(C16:H16)</f>
-        <v>125900</v>
+        <v>133700</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1201,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>120000</v>
+        <v>129500</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1223,7 +1227,7 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(C17:H17)</f>
-        <v>120000</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1231,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="D18" s="1">
-        <v>119800</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1253,7 +1257,7 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(C18:H18)</f>
-        <v>119800</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1261,13 +1265,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>127200</v>
       </c>
       <c r="D19" s="1">
-        <v>110200</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1283,7 +1287,7 @@
       </c>
       <c r="I19" s="1">
         <f>SUM(C19:H19)</f>
-        <v>110200</v>
+        <v>127200</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1291,13 +1295,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>99700</v>
+        <v>125900</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1313,7 +1317,7 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(C20:H20)</f>
-        <v>99700</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1321,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1">
-        <v>94600</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>119800</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="I21" s="1">
         <f>SUM(C21:H21)</f>
-        <v>94600</v>
+        <v>119800</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,13 +1355,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1">
-        <v>93500</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>110200</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1373,7 +1377,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUM(C22:H22)</f>
-        <v>93500</v>
+        <v>110200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,16 +1385,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>71600</v>
+        <v>37000</v>
       </c>
       <c r="D23" s="1">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1403,7 +1407,7 @@
       </c>
       <c r="I23" s="1">
         <f>SUM(C23:H23)</f>
-        <v>84100</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>99700</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1433,7 +1437,7 @@
       </c>
       <c r="I24" s="1">
         <f>SUM(C24:H24)</f>
-        <v>83000</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1441,13 +1445,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>94600</v>
       </c>
       <c r="D25" s="1">
-        <v>73600</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1463,7 +1467,7 @@
       </c>
       <c r="I25" s="1">
         <f>SUM(C25:H25)</f>
-        <v>73600</v>
+        <v>94600</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1471,10 +1475,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>68700</v>
+        <v>93500</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1493,7 +1497,7 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(C26:H26)</f>
-        <v>68700</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1501,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
-        <v>59500</v>
+        <v>71600</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1523,7 +1527,7 @@
       </c>
       <c r="I27" s="1">
         <f>SUM(C27:H27)</f>
-        <v>59500</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1531,13 +1535,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="D28" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1553,7 +1557,7 @@
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
-        <v>59500</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1561,13 +1565,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1583,7 +1587,7 @@
       </c>
       <c r="I29" s="1">
         <f>SUM(C29:H29)</f>
-        <v>50000</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1591,13 +1595,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1613,7 +1617,7 @@
       </c>
       <c r="I30" s="1">
         <f>SUM(C30:H30)</f>
-        <v>37000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1621,10 +1625,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>33800</v>
+        <v>68700</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUM(C31:H31)</f>
-        <v>33800</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1651,10 +1655,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>27300</v>
+        <v>59500</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1673,7 +1677,7 @@
       </c>
       <c r="I32" s="1">
         <f>SUM(C32:H32)</f>
-        <v>27300</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1681,10 +1685,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1703,7 +1707,7 @@
       </c>
       <c r="I33" s="1">
         <f>SUM(C33:H33)</f>
-        <v>16000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1711,10 +1715,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1733,7 +1737,7 @@
       </c>
       <c r="I34" s="1">
         <f>SUM(C34:H34)</f>
-        <v>0</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1741,10 +1745,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1763,7 +1767,7 @@
       </c>
       <c r="I35" s="1">
         <f>SUM(C35:H35)</f>
-        <v>0</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1771,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>19040</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="I36" s="1">
         <f>SUM(C36:H36)</f>
-        <v>0</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1801,10 +1805,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1823,7 +1827,7 @@
       </c>
       <c r="I37" s="1">
         <f>SUM(C37:H37)</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1831,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1861,7 +1865,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1891,7 +1895,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1921,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -1951,7 +1955,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1981,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2011,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2041,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2071,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2101,7 +2105,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2131,7 +2135,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2161,7 +2165,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2191,7 +2195,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2221,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2251,7 +2255,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2281,7 +2285,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2311,7 +2315,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2341,7 +2345,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2371,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2401,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2431,7 +2435,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2461,7 +2465,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2491,7 +2495,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -2521,7 +2525,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2551,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -2611,7 +2615,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -2641,7 +2645,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -2671,7 +2675,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -2701,7 +2705,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -2731,7 +2735,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2761,7 +2765,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2791,7 +2795,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -2851,7 +2855,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -2881,7 +2885,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2911,7 +2915,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -2941,7 +2945,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2971,7 +2975,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3001,7 +3005,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3031,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3061,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3091,7 +3095,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3121,7 +3125,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -3181,7 +3185,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -3211,7 +3215,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3241,7 +3245,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -3271,7 +3275,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3301,7 +3305,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -3331,7 +3335,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -3361,7 +3365,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -3391,7 +3395,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -3421,7 +3425,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -3451,7 +3455,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -3481,7 +3485,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -3753,9 +3757,7 @@
       <c r="B102" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1">
         <v>0</v>
       </c>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8AD2E-BF3B-6A41-BAAF-BFF9D9C73AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99C1C7-F9A3-0446-9E0B-750412E7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="760" windowWidth="26880" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Jaochun Zhang (Oscar)</t>
+  </si>
+  <si>
+    <t>Shilong Wan</t>
   </si>
 </sst>
 </file>
@@ -403,11 +406,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +715,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,19 +757,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>181000</v>
       </c>
       <c r="E2" s="1">
-        <v>563000</v>
+        <v>168000</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -777,7 +779,7 @@
       </c>
       <c r="I2" s="1">
         <f>SUM(C2:H2)</f>
-        <v>563000</v>
+        <v>679000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -785,16 +787,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -807,7 +809,7 @@
       </c>
       <c r="I3" s="1">
         <f>SUM(C3:H3)</f>
-        <v>355000</v>
+        <v>563000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -815,16 +817,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="D4" s="1">
-        <v>181000</v>
+        <v>270000</v>
       </c>
       <c r="E4" s="1">
-        <v>16800</v>
+        <v>126100</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -837,7 +839,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(C4:H4)</f>
-        <v>317800</v>
+        <v>481100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -845,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -854,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>275800</v>
+        <v>133700</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>245300</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -867,7 +869,7 @@
       </c>
       <c r="I5" s="1">
         <f>SUM(C5:H5)</f>
-        <v>275800</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -875,19 +877,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
-        <v>83000</v>
+        <v>127400</v>
       </c>
       <c r="D6" s="1">
-        <v>175300</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>246300</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -897,7 +899,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(C6:H6)</f>
-        <v>258300</v>
+        <v>373700</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -905,19 +907,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
-        <v>65400</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>84500</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>352500</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -927,7 +929,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>253900</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -935,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>209100</v>
+        <v>68700</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>280500</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -957,7 +959,7 @@
       </c>
       <c r="I8" s="1">
         <f>SUM(C8:H8)</f>
-        <v>209100</v>
+        <v>349200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -965,19 +967,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>190400</v>
       </c>
       <c r="D9" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>143100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>121900</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -987,7 +989,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>202600</v>
+        <v>312300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -995,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>201000</v>
+        <v>150400</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1007,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>159600</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1017,7 +1019,7 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>201000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1025,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
-        <v>199000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>110200</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>190500</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1047,7 +1049,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
-        <v>199000</v>
+        <v>300700</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1055,16 +1057,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>193900</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>275800</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1077,7 +1079,7 @@
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>193900</v>
+        <v>275800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1085,16 +1087,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>87400</v>
+        <v>65400</v>
       </c>
       <c r="D13" s="1">
-        <v>90400</v>
+        <v>84500</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>104000</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>177800</v>
+        <v>253900</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1115,13 +1117,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="D14" s="1">
-        <v>172300</v>
+        <v>145300</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1137,7 +1139,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(C14:H14)</f>
-        <v>172300</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1145,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
-        <v>150400</v>
+        <v>209100</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(C15:H15)</f>
-        <v>150400</v>
+        <v>209100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1175,16 +1177,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>127200</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>133700</v>
+        <v>77600</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1197,7 +1199,7 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(C16:H16)</f>
-        <v>133700</v>
+        <v>204800</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1205,16 +1207,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>129500</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>143100</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1227,7 +1229,7 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(C17:H17)</f>
-        <v>129500</v>
+        <v>202600</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1235,10 +1237,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
-        <v>127400</v>
+        <v>201000</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1257,7 +1259,7 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(C18:H18)</f>
-        <v>127400</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1265,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>127200</v>
+        <v>199000</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1287,7 +1289,7 @@
       </c>
       <c r="I19" s="1">
         <f>SUM(C19:H19)</f>
-        <v>127200</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,13 +1297,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>125900</v>
+        <v>193900</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1317,7 +1319,7 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(C20:H20)</f>
-        <v>125900</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1325,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>87400</v>
       </c>
       <c r="D21" s="1">
-        <v>119800</v>
+        <v>90400</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1347,7 +1349,7 @@
       </c>
       <c r="I21" s="1">
         <f>SUM(C21:H21)</f>
-        <v>119800</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1355,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>110200</v>
+        <v>172300</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1377,7 +1379,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUM(C22:H22)</f>
-        <v>110200</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1385,16 +1387,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
-        <v>37000</v>
+        <v>129500</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1407,7 +1409,7 @@
       </c>
       <c r="I23" s="1">
         <f>SUM(C23:H23)</f>
-        <v>109000</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1415,13 +1417,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>99700</v>
+        <v>125900</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1437,7 +1439,7 @@
       </c>
       <c r="I24" s="1">
         <f>SUM(C24:H24)</f>
-        <v>99700</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1445,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1">
-        <v>94600</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>119800</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1467,7 +1469,7 @@
       </c>
       <c r="I25" s="1">
         <f>SUM(C25:H25)</f>
-        <v>94600</v>
+        <v>119800</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1475,16 +1477,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>93500</v>
+        <v>37000</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1497,7 +1499,7 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(C26:H26)</f>
-        <v>93500</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1505,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
-        <v>71600</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>12500</v>
+        <v>99700</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1527,7 +1529,7 @@
       </c>
       <c r="I27" s="1">
         <f>SUM(C27:H27)</f>
-        <v>84100</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1535,10 +1537,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>83000</v>
+        <v>94600</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1557,7 +1559,7 @@
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
-        <v>83000</v>
+        <v>94600</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1565,13 +1567,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>93500</v>
       </c>
       <c r="D29" s="1">
-        <v>73600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1587,7 +1589,7 @@
       </c>
       <c r="I29" s="1">
         <f>SUM(C29:H29)</f>
-        <v>73600</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1595,13 +1597,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>71600</v>
       </c>
       <c r="D30" s="1">
-        <v>73000</v>
+        <v>12500</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1617,7 +1619,7 @@
       </c>
       <c r="I30" s="1">
         <f>SUM(C30:H30)</f>
-        <v>73000</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>68700</v>
+        <v>83000</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1647,7 +1649,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUM(C31:H31)</f>
-        <v>68700</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1655,13 +1657,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1677,7 +1679,7 @@
       </c>
       <c r="I32" s="1">
         <f>SUM(C32:H32)</f>
-        <v>59500</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1685,13 +1687,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1707,7 +1709,7 @@
       </c>
       <c r="I33" s="1">
         <f>SUM(C33:H33)</f>
-        <v>50000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1715,10 +1717,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>33800</v>
+        <v>59500</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1737,7 +1739,7 @@
       </c>
       <c r="I34" s="1">
         <f>SUM(C34:H34)</f>
-        <v>33800</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1745,10 +1747,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>27300</v>
+        <v>50000</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1767,7 +1769,7 @@
       </c>
       <c r="I35" s="1">
         <f>SUM(C35:H35)</f>
-        <v>27300</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1775,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
-        <v>19040</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1787,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1797,7 +1799,7 @@
       </c>
       <c r="I36" s="1">
         <f>SUM(C36:H36)</f>
-        <v>19040</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1805,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>16000</v>
+        <v>33800</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1827,7 +1829,7 @@
       </c>
       <c r="I37" s="1">
         <f>SUM(C37:H37)</f>
-        <v>16000</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1835,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1857,7 +1859,7 @@
       </c>
       <c r="I38" s="1">
         <f>SUM(C38:H38)</f>
-        <v>0</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1865,10 +1867,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1887,7 +1889,7 @@
       </c>
       <c r="I39" s="1">
         <f>SUM(C39:H39)</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1895,7 +1897,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1925,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -1955,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1985,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2015,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2045,7 +2047,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2075,7 +2077,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2105,7 +2107,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2165,7 +2167,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2195,7 +2197,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2225,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2255,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2285,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2345,7 +2347,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2405,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2435,7 +2437,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2465,7 +2467,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2495,7 +2497,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -2525,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -2585,7 +2587,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -2645,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -2675,7 +2677,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -2705,7 +2707,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -2735,7 +2737,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2765,7 +2767,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -2885,7 +2887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2915,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -2945,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2975,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3005,7 +3007,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3065,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3125,7 +3127,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -3185,7 +3187,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -3215,7 +3217,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3245,7 +3247,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3305,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -3335,7 +3337,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -3365,7 +3367,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -3395,7 +3397,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -3425,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -3455,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -3485,7 +3487,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -3575,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -3605,7 +3607,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -3635,7 +3637,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -3665,7 +3667,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -3695,7 +3697,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -3725,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3755,9 +3757,11 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -3813,7 +3817,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -3843,7 +3847,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -3873,7 +3877,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -3903,7 +3907,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -3933,7 +3937,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -3963,7 +3967,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -3993,7 +3997,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -4023,7 +4027,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -4053,7 +4057,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -4079,34 +4083,15 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <f>SUM(C113:H113)</f>
-        <v>0</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
@@ -4318,8 +4303,8 @@
       <c r="I132" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I113">
-    <sortCondition descending="1" ref="I2:I113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I112">
+    <sortCondition descending="1" ref="I2:I112"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99C1C7-F9A3-0446-9E0B-750412E7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8709B7F-946A-2948-A6A3-FDC310B4DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>eisegete</t>
   </si>
   <si>
-    <t>Rohan</t>
-  </si>
-  <si>
     <t>Chan Chung Yin Michael</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Shilong Wan</t>
+  </si>
+  <si>
+    <t>Rohan Jain</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>120000</v>
@@ -772,14 +772,14 @@
         <v>210000</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>143000</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>SUM(C2:H2)</f>
-        <v>679000</v>
+        <v>822000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -796,20 +796,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>738100</v>
       </c>
       <c r="I3" s="1">
         <f>SUM(C3:H3)</f>
-        <v>563000</v>
+        <v>779100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -817,29 +817,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
-        <v>85000</v>
+        <v>127400</v>
       </c>
       <c r="D4" s="1">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>126100</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>246300</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>252100</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <f>SUM(C4:H4)</f>
-        <v>481100</v>
+        <v>625800</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -847,29 +847,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>190400</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>133700</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>245300</v>
+        <v>141900</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>242300</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(C5:H5)</f>
-        <v>379000</v>
+        <v>574600</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -877,19 +877,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="F6" s="1">
-        <v>246300</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(C6:H6)</f>
-        <v>373700</v>
+        <v>563000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -907,29 +907,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>65400</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>104000</v>
       </c>
       <c r="F7" s="1">
-        <v>352500</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>299000</v>
       </c>
       <c r="I7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>352500</v>
+        <v>552900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -937,29 +937,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
-        <v>68700</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>110200</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>280500</v>
+        <v>160500</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>261000</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <f>SUM(C8:H8)</f>
-        <v>349200</v>
+        <v>531700</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -967,19 +967,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1">
-        <v>190400</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>275800</v>
       </c>
       <c r="F9" s="1">
-        <v>121900</v>
+        <v>214000</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>312300</v>
+        <v>489800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>150400</v>
+        <v>209100</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1009,17 +1009,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>159600</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>116500</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>310000</v>
+        <v>487600</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1027,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="D11" s="1">
-        <v>110200</v>
+        <v>270000</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>126100</v>
       </c>
       <c r="F11" s="1">
-        <v>190500</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
-        <v>300700</v>
+        <v>481100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1057,29 +1057,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>150400</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>275800</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>159600</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>275800</v>
+        <v>386200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1087,19 +1087,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>65400</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>84500</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>104000</v>
+        <v>133700</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>245300</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>253900</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1117,19 +1117,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>145300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>352500</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(C14:H14)</f>
-        <v>228300</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>209100</v>
+        <v>68700</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>250500</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(C15:H15)</f>
-        <v>209100</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>127200</v>
+        <v>83000</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>145300</v>
       </c>
       <c r="E16" s="1">
-        <v>77600</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(C16:H16)</f>
-        <v>204800</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1207,16 +1207,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>143100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>227200</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(C17:H17)</f>
-        <v>202600</v>
+        <v>227200</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
-        <v>201000</v>
+        <v>127200</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>77600</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(C18:H18)</f>
-        <v>201000</v>
+        <v>204800</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>199000</v>
+        <v>94600</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1285,11 +1285,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>107000</v>
       </c>
       <c r="I19" s="1">
         <f>SUM(C19:H19)</f>
-        <v>199000</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1297,13 +1297,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>201000</v>
       </c>
       <c r="D20" s="1">
-        <v>193900</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(C20:H20)</f>
-        <v>193900</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>87400</v>
+        <v>199000</v>
       </c>
       <c r="D21" s="1">
-        <v>90400</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I21" s="1">
         <f>SUM(C21:H21)</f>
-        <v>177800</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>172300</v>
+        <v>193900</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUM(C22:H22)</f>
-        <v>172300</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1387,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>129500</v>
+        <v>87400</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>90400</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I23" s="1">
         <f>SUM(C23:H23)</f>
-        <v>129500</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>125900</v>
+        <v>59500</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>113100</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I24" s="1">
         <f>SUM(C24:H24)</f>
-        <v>125900</v>
+        <v>172600</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>119800</v>
+        <v>172300</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I25" s="1">
         <f>SUM(C25:H25)</f>
-        <v>119800</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1477,16 +1477,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>37000</v>
+        <v>129500</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(C26:H26)</f>
-        <v>109000</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1507,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>99700</v>
+        <v>125900</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="1">
         <f>SUM(C27:H27)</f>
-        <v>99700</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1537,13 +1537,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
-        <v>94600</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>119800</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
-        <v>94600</v>
+        <v>119800</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
-        <v>93500</v>
+        <v>37000</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I29" s="1">
         <f>SUM(C29:H29)</f>
-        <v>93500</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1597,13 +1597,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>71600</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>12500</v>
+        <v>99700</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I30" s="1">
         <f>SUM(C30:H30)</f>
-        <v>84100</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>83000</v>
+        <v>93500</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUM(C31:H31)</f>
-        <v>83000</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1657,13 +1657,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>71600</v>
       </c>
       <c r="D32" s="1">
-        <v>73600</v>
+        <v>12500</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I32" s="1">
         <f>SUM(C32:H32)</f>
-        <v>73600</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,13 +1687,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="D33" s="1">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I33" s="1">
         <f>SUM(C33:H33)</f>
-        <v>73000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="I34" s="1">
         <f>SUM(C34:H34)</f>
-        <v>59500</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1747,13 +1747,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I35" s="1">
         <f>SUM(C35:H35)</f>
-        <v>50000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1777,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="I36" s="1">
         <f>SUM(C36:H36)</f>
-        <v>41000</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1807,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>33800</v>
+        <v>50000</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I37" s="1">
         <f>SUM(C37:H37)</f>
-        <v>33800</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
-        <v>27300</v>
+        <v>33800</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="I38" s="1">
         <f>SUM(C38:H38)</f>
-        <v>27300</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>16000</v>
@@ -1897,7 +1897,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -4072,14 +4072,14 @@
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
       </c>
       <c r="I112" s="1">
         <f>SUM(C112:H112)</f>
-        <v>0</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC56BB9-829B-4A76-90F6-676BD3A743A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED710D87-160B-4787-ADB9-239E48EF6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="4580" windowWidth="19060" windowHeight="10270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,196 +484,519 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I33" si="0">SUM(C2:H2)</f>
+        <f t="shared" ref="I2" si="0">SUM(C2:H2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I13" si="1">SUM(C3:H3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I20" si="2">SUM(C14:H14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrck/Desktop/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8709B7F-946A-2948-A6A3-FDC310B4DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99C1C7-F9A3-0446-9E0B-750412E7DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2140" windowWidth="21600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,6 +146,9 @@
     <t>eisegete</t>
   </si>
   <si>
+    <t>Rohan</t>
+  </si>
+  <si>
     <t>Chan Chung Yin Michael</t>
   </si>
   <si>
@@ -354,9 +357,6 @@
   </si>
   <si>
     <t>Shilong Wan</t>
-  </si>
-  <si>
-    <t>Rohan Jain</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>120000</v>
@@ -772,14 +772,14 @@
         <v>210000</v>
       </c>
       <c r="G2" s="1">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>SUM(C2:H2)</f>
-        <v>822000</v>
+        <v>679000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -796,20 +796,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="F3" s="1">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>738100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <f>SUM(C3:H3)</f>
-        <v>779100</v>
+        <v>563000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -817,29 +817,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>127400</v>
+        <v>85000</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>126100</v>
       </c>
       <c r="F4" s="1">
-        <v>246300</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>252100</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <f>SUM(C4:H4)</f>
-        <v>625800</v>
+        <v>481100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -847,29 +847,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>190400</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>133700</v>
       </c>
       <c r="F5" s="1">
-        <v>141900</v>
+        <v>245300</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>242300</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(C5:H5)</f>
-        <v>574600</v>
+        <v>379000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -877,19 +877,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>246300</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(C6:H6)</f>
-        <v>563000</v>
+        <v>373700</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -907,29 +907,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
-        <v>65400</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>84500</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>352500</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>299000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>552900</v>
+        <v>352500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -937,29 +937,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>68700</v>
       </c>
       <c r="D8" s="1">
-        <v>110200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>160500</v>
+        <v>280500</v>
       </c>
       <c r="G8" s="1">
-        <v>261000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <f>SUM(C8:H8)</f>
-        <v>531700</v>
+        <v>349200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -967,19 +967,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>190400</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>275800</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>214000</v>
+        <v>121900</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="I9" s="1">
         <f>SUM(C9:H9)</f>
-        <v>489800</v>
+        <v>312300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>209100</v>
+        <v>150400</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1009,17 +1009,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>159600</v>
       </c>
       <c r="G10" s="1">
-        <v>116500</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f>SUM(C10:H10)</f>
-        <v>487600</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1027,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>270000</v>
+        <v>110200</v>
       </c>
       <c r="E11" s="1">
-        <v>126100</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>190500</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="I11" s="1">
         <f>SUM(C11:H11)</f>
-        <v>481100</v>
+        <v>300700</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1057,29 +1057,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1">
-        <v>150400</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>275800</v>
       </c>
       <c r="F12" s="1">
-        <v>159600</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>76200</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <f>SUM(C12:H12)</f>
-        <v>386200</v>
+        <v>275800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1087,19 +1087,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>65400</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="E13" s="1">
-        <v>133700</v>
+        <v>104000</v>
       </c>
       <c r="F13" s="1">
-        <v>245300</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUM(C13:H13)</f>
-        <v>379000</v>
+        <v>253900</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1117,19 +1117,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>145300</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>352500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="I14" s="1">
         <f>SUM(C14:H14)</f>
-        <v>352500</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
-        <v>68700</v>
+        <v>209100</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>250500</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUM(C15:H15)</f>
-        <v>319200</v>
+        <v>209100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>83000</v>
+        <v>127200</v>
       </c>
       <c r="D16" s="1">
-        <v>145300</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>77600</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I16" s="1">
         <f>SUM(C16:H16)</f>
-        <v>228300</v>
+        <v>204800</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1207,16 +1207,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>143100</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>227200</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(C17:H17)</f>
-        <v>227200</v>
+        <v>202600</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
-        <v>127200</v>
+        <v>201000</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>77600</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(C18:H18)</f>
-        <v>204800</v>
+        <v>201000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>94600</v>
+        <v>199000</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1285,11 +1285,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>107000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <f>SUM(C19:H19)</f>
-        <v>201600</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1297,13 +1297,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
-        <v>201000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>193900</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I20" s="1">
         <f>SUM(C20:H20)</f>
-        <v>201000</v>
+        <v>193900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>199000</v>
+        <v>87400</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>90400</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I21" s="1">
         <f>SUM(C21:H21)</f>
-        <v>199000</v>
+        <v>177800</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>193900</v>
+        <v>172300</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUM(C22:H22)</f>
-        <v>193900</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1387,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
-        <v>87400</v>
+        <v>129500</v>
       </c>
       <c r="D23" s="1">
-        <v>90400</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I23" s="1">
         <f>SUM(C23:H23)</f>
-        <v>177800</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>59500</v>
+        <v>125900</v>
       </c>
       <c r="E24" s="1">
-        <v>113100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I24" s="1">
         <f>SUM(C24:H24)</f>
-        <v>172600</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>172300</v>
+        <v>119800</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I25" s="1">
         <f>SUM(C25:H25)</f>
-        <v>172300</v>
+        <v>119800</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1477,16 +1477,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>129500</v>
+        <v>37000</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(C26:H26)</f>
-        <v>129500</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1507,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>125900</v>
+        <v>99700</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I27" s="1">
         <f>SUM(C27:H27)</f>
-        <v>125900</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1537,13 +1537,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>94600</v>
       </c>
       <c r="D28" s="1">
-        <v>119800</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I28" s="1">
         <f>SUM(C28:H28)</f>
-        <v>119800</v>
+        <v>94600</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>37000</v>
+        <v>93500</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I29" s="1">
         <f>SUM(C29:H29)</f>
-        <v>109000</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1597,13 +1597,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>71600</v>
       </c>
       <c r="D30" s="1">
-        <v>99700</v>
+        <v>12500</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I30" s="1">
         <f>SUM(C30:H30)</f>
-        <v>99700</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>93500</v>
+        <v>83000</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUM(C31:H31)</f>
-        <v>93500</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1657,13 +1657,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1">
-        <v>71600</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>12500</v>
+        <v>73600</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I32" s="1">
         <f>SUM(C32:H32)</f>
-        <v>84100</v>
+        <v>73600</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,13 +1687,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>83000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I33" s="1">
         <f>SUM(C33:H33)</f>
-        <v>83000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="D34" s="1">
-        <v>73600</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="I34" s="1">
         <f>SUM(C34:H34)</f>
-        <v>73600</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1747,13 +1747,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="D35" s="1">
-        <v>73000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I35" s="1">
         <f>SUM(C35:H35)</f>
-        <v>73000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1777,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
-        <v>59500</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="I36" s="1">
         <f>SUM(C36:H36)</f>
-        <v>59500</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1807,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>50000</v>
+        <v>33800</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I37" s="1">
         <f>SUM(C37:H37)</f>
-        <v>50000</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>33800</v>
+        <v>27300</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="I38" s="1">
         <f>SUM(C38:H38)</f>
-        <v>33800</v>
+        <v>27300</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
         <v>16000</v>
@@ -1897,7 +1897,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -4072,14 +4072,14 @@
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
       </c>
       <c r="I112" s="1">
         <f>SUM(C112:H112)</f>
-        <v>-30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41521E65-7AE8-406F-A7D6-010237F98E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CFF69-2ABB-498C-9286-5F7C191C4A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="4580" windowWidth="19060" windowHeight="10270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -62,14 +62,56 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Chenul Punchihewa</t>
+  </si>
+  <si>
+    <t>Phan Minh Quan Nguyen</t>
+  </si>
+  <si>
+    <t>Haopen Jiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho Chon Wang </t>
+  </si>
+  <si>
+    <t>Minh Hoang Ha</t>
+  </si>
+  <si>
+    <t>Marcus Gan</t>
+  </si>
+  <si>
+    <t>Yige Tan</t>
+  </si>
+  <si>
+    <t>Shilong Wan</t>
+  </si>
+  <si>
+    <t>Yan Hei Hui</t>
+  </si>
+  <si>
+    <t>Benjamin Morrison</t>
+  </si>
+  <si>
+    <t>Zarif Syed</t>
+  </si>
+  <si>
+    <t>Zac Zhang</t>
+  </si>
+  <si>
+    <t>Long Ha</t>
+  </si>
+  <si>
+    <t>Liyao Ren</t>
+  </si>
+  <si>
+    <t>Max Guo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +129,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -462,523 +520,469 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
+      <c r="C2" s="3">
+        <v>169400</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>169400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>140000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>140000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>136000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>136000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>126900</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>126900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100900</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100900</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>96200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>96200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>81600</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>81600</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>75000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>75000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>69300</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>69300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>66400</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>66400</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>62800</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>62800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>62000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>62000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>55000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>55000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>49400</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>49400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>28000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>28000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -2168,42 +2172,9 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I112">
-    <sortCondition descending="1" ref="I2:I112"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I109">
+    <sortCondition descending="1" ref="I2:I109"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DC45D-F857-4D85-B0CA-DC96C396050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC227B-ECFF-4042-8EA1-28CA7D613256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Haopen Jiang</t>
   </si>
   <si>
-    <t xml:space="preserve">Ho Chon Wang </t>
-  </si>
-  <si>
     <t>Minh Hoang Ha</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Edwin Zou</t>
   </si>
   <si>
-    <t>JAY TIMOTHY WANG</t>
-  </si>
-  <si>
     <t>Hanhan Chen</t>
   </si>
   <si>
@@ -129,6 +123,30 @@
   </si>
   <si>
     <t>Gabriel Lorenzo Geronimo</t>
+  </si>
+  <si>
+    <t>Ho Chon Wang</t>
+  </si>
+  <si>
+    <t>Jay Timothy Wang</t>
+  </si>
+  <si>
+    <t>Mohit Garg</t>
+  </si>
+  <si>
+    <t>Darius Goh</t>
+  </si>
+  <si>
+    <t>Yuhao Guo</t>
+  </si>
+  <si>
+    <t>Hugh Roberts</t>
+  </si>
+  <si>
+    <t>Gordon Wu</t>
+  </si>
+  <si>
+    <t>Bervyn Sim</t>
   </si>
 </sst>
 </file>
@@ -172,10 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,14 +498,13 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="2"/>
-    <col min="2" max="2" width="27.08984375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="2"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -524,28 +540,28 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>387500</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>387500</v>
       </c>
     </row>
@@ -553,28 +569,28 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>140000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>138000</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>278000</v>
       </c>
     </row>
@@ -582,28 +598,28 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>55000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>161400</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>216400</v>
       </c>
     </row>
@@ -611,599 +627,755 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>69300</v>
-      </c>
-      <c r="D5" s="2">
-        <v>120100</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>189400</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>100900</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>89000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>189900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>169400</v>
-      </c>
-      <c r="D6" s="2">
-        <v>16000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>185400</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>69300</v>
+      </c>
+      <c r="D6">
+        <v>120100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>189400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>126900</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36900</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>163800</v>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>169400</v>
+      </c>
+      <c r="D7">
+        <v>16000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>185400</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>136000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>136000</v>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>126900</v>
+      </c>
+      <c r="D8">
+        <v>36900</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>163800</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>135000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>135000</v>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>136000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>136000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>133200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>133200</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>135000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>135000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2">
-        <v>55000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>57800</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>112800</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>133200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>133200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>111500</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>111500</v>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>55000</v>
+      </c>
+      <c r="D12">
+        <v>57800</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>112800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>105400</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>105400</v>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>111500</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>111500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100900</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>100900</v>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>102000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>102000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>96200</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>96200</v>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>99100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>99100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>83200</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>83200</v>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>96200</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>96200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>81600</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>81600</v>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>93100</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>93100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>75000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>75000</v>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>83200</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>83200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>66400</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>66400</v>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>81600</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>81600</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>62800</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>62800</v>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>75400</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>75400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>62000</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>62000</v>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>75000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>75000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
-        <v>49400</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>49400</v>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>71500</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>71500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2">
-        <v>28000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>28000</v>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>70700</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>70700</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>66400</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>62800</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>62000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>54200</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>49400</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>28000</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>25400</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>25400</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\Chrome Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC227B-ECFF-4042-8EA1-28CA7D613256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B105FA-3531-48AA-B575-5A714EB726D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>Bervyn Sim</t>
+  </si>
+  <si>
+    <t>Lisa Cheong</t>
+  </si>
+  <si>
+    <t>Jack Sweeney</t>
+  </si>
+  <si>
+    <t>Yongha Kim</t>
+  </si>
+  <si>
+    <t>Kevin Dai</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ao Fu</t>
+  </si>
+  <si>
+    <t>David Roberts</t>
+  </si>
+  <si>
+    <t>Isabelle Li</t>
+  </si>
+  <si>
+    <t>Vance Lam</t>
   </si>
 </sst>
 </file>
@@ -498,12 +525,12 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,19 +568,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="D2">
-        <v>387500</v>
+        <v>138000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>347200</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -562,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>387500</v>
+        <v>635200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -570,16 +597,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>138000</v>
+        <v>387500</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>80300</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -591,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>278000</v>
+        <v>467800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -599,19 +626,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>55000</v>
+        <v>136000</v>
       </c>
       <c r="D4">
-        <v>161400</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>187000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -620,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>216400</v>
+        <v>357200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -628,19 +655,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>100900</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="E5">
-        <v>89000</v>
+        <v>119100</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -649,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>189900</v>
+        <v>349100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -657,19 +684,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>69300</v>
+        <v>55000</v>
       </c>
       <c r="D6">
-        <v>120100</v>
+        <v>161400</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>85200</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -678,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>189400</v>
+        <v>301600</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -686,19 +713,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>169400</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>102000</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>176400</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -707,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>185400</v>
+        <v>278400</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -715,19 +742,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>126900</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>36900</v>
+        <v>75400</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>69600</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>163800</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -744,19 +771,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>136000</v>
+        <v>126900</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>36900</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -765,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>136000</v>
+        <v>263800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -773,16 +800,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>135000</v>
+        <v>83200</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>178800</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -794,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>135000</v>
+        <v>262000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -802,19 +829,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>69300</v>
       </c>
       <c r="D11">
-        <v>133200</v>
+        <v>120100</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>47700</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -823,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>133200</v>
+        <v>237100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -831,16 +858,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>55000</v>
+        <v>114900</v>
       </c>
       <c r="D12">
-        <v>57800</v>
+        <v>50000</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>66800</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -852,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>112800</v>
+        <v>231700</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -860,19 +887,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>100900</v>
       </c>
       <c r="D13">
-        <v>111500</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -881,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>111500</v>
+        <v>219900</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -889,19 +916,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>62800</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>136100</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -910,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>102000</v>
+        <v>198900</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -918,16 +945,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>169400</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="E15">
-        <v>99100</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -939,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>99100</v>
+        <v>185400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -947,19 +974,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>96200</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>88800</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>67100</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>96200</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -976,16 +1003,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>93100</v>
+        <v>111500</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>63300</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -997,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>93100</v>
+        <v>174800</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1005,19 +1032,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="D18">
-        <v>83200</v>
+        <v>57800</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>54500</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1026,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>83200</v>
+        <v>172300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1034,10 +1061,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>81600</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1046,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>149900</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1055,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>81600</v>
+        <v>149900</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1063,19 +1090,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>75400</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>54200</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1084,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>75400</v>
+        <v>140200</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1092,13 +1119,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>133200</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1113,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>75000</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1121,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1130,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1142,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>71500</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1162,7 +1189,7 @@
         <v>70700</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>56200</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1171,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>70700</v>
+        <v>126900</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1179,16 +1206,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>66400</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>111800</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1200,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>66400</v>
+        <v>111800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1208,10 +1235,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>62800</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1220,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>101000</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1229,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>62800</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1237,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>99100</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1258,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>62000</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1266,16 +1293,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>96200</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>54200</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1287,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>54200</v>
+        <v>96200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1295,13 +1322,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>49400</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>93100</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1316,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>49400</v>
+        <v>93100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1324,10 +1351,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>28000</v>
+        <v>81600</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1345,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>28000</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1353,82 +1380,316 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>78900</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>78900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>75000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>66400</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>62000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>49400</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>41500</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>40500</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>28000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>25400</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>25400</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>21700</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508DE0D-CFA2-4109-AB66-2A28CCD0A16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D461CEE-8011-4580-B509-502877FE1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$L$39</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -62,7 +65,115 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Hansen Wang</t>
+  </si>
+  <si>
+    <t>Siddhanth Jain</t>
+  </si>
+  <si>
+    <t>Charlie Galea</t>
+  </si>
+  <si>
+    <t>Souji Harada</t>
+  </si>
+  <si>
+    <t>Edwin Li</t>
+  </si>
+  <si>
+    <t>Jack Sweeney</t>
+  </si>
+  <si>
+    <t>rachel wang</t>
+  </si>
+  <si>
+    <t>Joshua Kang</t>
+  </si>
+  <si>
+    <t>Isaac Yau</t>
+  </si>
+  <si>
+    <t>Owen Sanigorski</t>
+  </si>
+  <si>
+    <t>Leon Poor</t>
+  </si>
+  <si>
+    <t>Kai Wang</t>
+  </si>
+  <si>
+    <t>The Anh Ngo</t>
+  </si>
+  <si>
+    <t>Max Gao</t>
+  </si>
+  <si>
+    <t>William Nguyen</t>
+  </si>
+  <si>
+    <t>Joshua Burke</t>
+  </si>
+  <si>
+    <t>Abhay Jhade</t>
+  </si>
+  <si>
+    <t>William Yang</t>
+  </si>
+  <si>
+    <t>Yutong Hu</t>
+  </si>
+  <si>
+    <t>Pavan Dev</t>
+  </si>
+  <si>
+    <t>Isabelle Li</t>
+  </si>
+  <si>
+    <t>Benjamin Morrison</t>
+  </si>
+  <si>
+    <t>Murtesa Mohamed Musa</t>
+  </si>
+  <si>
+    <t>Kelven Zhang</t>
+  </si>
+  <si>
+    <t>Daniel Moreno Pintado</t>
+  </si>
+  <si>
+    <t>Benjamin Choi</t>
+  </si>
+  <si>
+    <t>Eric Chang</t>
+  </si>
+  <si>
+    <t>Edwin Zou</t>
+  </si>
+  <si>
+    <t>Andrew Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quan </t>
+  </si>
+  <si>
+    <t>Thomas Blanch</t>
+  </si>
+  <si>
+    <t>joel jacobson</t>
+  </si>
+  <si>
+    <t>nick larobine</t>
+  </si>
+  <si>
+    <t>bervyn sim</t>
+  </si>
+  <si>
+    <t>sam narayan</t>
+  </si>
+  <si>
+    <t>charlie wetenhall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Tashiro </t>
   </si>
 </sst>
 </file>
@@ -413,14 +524,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -457,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>302100</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -478,7 +596,8 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>SUM(C2:H2)</f>
+        <v>302100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -486,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>147800</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -507,7 +626,8 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f t="shared" ref="I3:I38" si="0">SUM(C3:H3)</f>
+        <v>147800</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -515,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -536,7 +656,8 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -544,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>109800</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -565,7 +686,8 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>109800</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -573,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>109500</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -594,7 +716,8 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>109500</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -602,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>100700</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -623,7 +746,8 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100700</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -631,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>87500</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -652,7 +776,8 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>87500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -660,10 +785,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>81800</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -681,7 +806,8 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>81800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -689,142 +815,896 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>80300</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>80300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>78000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>74800</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="C13">
+        <v>72800</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>72800</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>66100</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>66100</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>63800</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>63800</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>54400</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>51700</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>51400</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>51340</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>51340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>50000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>46600</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>46200</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>43000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>40000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>37000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>36100</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>35800</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>35000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>33300</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>30500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>29500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>28800</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>27400</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>22200</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>18200</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>17100</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>10200</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>3800</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D461CEE-8011-4580-B509-502877FE1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8475B-9359-4CA3-9F23-C074919B76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Andrew Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">Quan </t>
-  </si>
-  <si>
     <t>Thomas Blanch</t>
   </si>
   <si>
@@ -173,7 +170,73 @@
     <t>charlie wetenhall</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan Tashiro </t>
+    <t>Ryan Zheng</t>
+  </si>
+  <si>
+    <t>Quan</t>
+  </si>
+  <si>
+    <t>Owen Moxham</t>
+  </si>
+  <si>
+    <t>Uvindu De Alwis</t>
+  </si>
+  <si>
+    <t>Ryan Tran</t>
+  </si>
+  <si>
+    <t>Kieran Wu</t>
+  </si>
+  <si>
+    <t>Ameya Mahesh</t>
+  </si>
+  <si>
+    <t>Aaryan Kochhar</t>
+  </si>
+  <si>
+    <t>Ben McFall</t>
+  </si>
+  <si>
+    <t>Hugh Roberts</t>
+  </si>
+  <si>
+    <t>Yuhao Guo</t>
+  </si>
+  <si>
+    <t>John Lu</t>
+  </si>
+  <si>
+    <t>Tavish Balyan</t>
+  </si>
+  <si>
+    <t>An Khang Lupng</t>
+  </si>
+  <si>
+    <t>Michael Vo</t>
+  </si>
+  <si>
+    <t>Jamie Kukuruzovic</t>
+  </si>
+  <si>
+    <t>Achal Jhawar</t>
+  </si>
+  <si>
+    <t>Gordon Wu</t>
+  </si>
+  <si>
+    <t>Jeffrey Liu</t>
+  </si>
+  <si>
+    <t>Kyle Le</t>
+  </si>
+  <si>
+    <t>Bryan Chang</t>
+  </si>
+  <si>
+    <t>Michael Tran</t>
+  </si>
+  <si>
+    <t>Ryan Tashiro</t>
   </si>
 </sst>
 </file>
@@ -525,7 +588,7 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>302100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>53700</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -596,8 +659,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(C2:H2)</f>
-        <v>302100</v>
+        <v>355800</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -605,13 +667,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>147800</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>298700</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,8 +688,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I38" si="0">SUM(C3:H3)</f>
-        <v>147800</v>
+        <v>298700</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -635,13 +696,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>135000</v>
+        <v>109500</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>168700</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -656,8 +717,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>135000</v>
+        <v>278200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -665,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>109800</v>
+        <v>74800</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -686,8 +746,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>109800</v>
+        <v>215800</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -695,13 +754,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>109500</v>
+        <v>71000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>81400</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -716,8 +775,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>109500</v>
+        <v>152400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -725,10 +783,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>100700</v>
+        <v>147800</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -746,8 +804,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -755,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>87500</v>
+        <v>120000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -776,8 +833,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>87500</v>
+        <v>136200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -785,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>81800</v>
+        <v>109800</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -806,8 +862,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>81800</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -815,10 +870,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>80300</v>
+        <v>100700</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -836,8 +891,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>80300</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -845,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>78000</v>
+        <v>89300</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -866,8 +920,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -875,13 +928,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>74800</v>
+        <v>80300</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -896,8 +949,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>74800</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -905,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>72800</v>
+        <v>87500</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -926,8 +978,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>72800</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -935,13 +986,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>66100</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -956,8 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>66100</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -965,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>63800</v>
+        <v>81800</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -986,8 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>63800</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -995,13 +1044,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>54400</v>
+        <v>17100</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>63500</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1016,8 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>54400</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1025,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>51700</v>
+        <v>78000</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1046,8 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>51700</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1055,13 +1102,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>51400</v>
+        <v>27400</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1076,8 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>51400</v>
+        <v>75400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1085,10 +1131,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>51340</v>
+        <v>72800</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1106,8 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>51340</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1115,13 +1160,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1136,8 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1145,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>46600</v>
+        <v>64500</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1166,8 +1210,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>46600</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1175,10 +1218,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>46200</v>
+        <v>66100</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1196,8 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>46200</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1205,10 +1247,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>43000</v>
+        <v>63800</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1226,8 +1268,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>43000</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1235,13 +1276,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1256,8 +1297,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1265,14 +1305,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C25">
+        <v>18200</v>
+      </c>
+      <c r="D25">
         <v>37000</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
@@ -1286,8 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>37000</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1295,10 +1334,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>36100</v>
+        <v>54400</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1316,8 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>36100</v>
+        <v>54400</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1325,13 +1363,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>35800</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1346,8 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>35800</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1355,13 +1392,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1376,8 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1385,13 +1421,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1406,8 +1442,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>33300</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1415,10 +1450,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>30500</v>
+        <v>51700</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1436,8 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>30500</v>
+        <v>51700</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1445,10 +1479,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>29500</v>
+        <v>51400</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1466,8 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>29500</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1475,10 +1508,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>28800</v>
+        <v>51340</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1496,8 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>28800</v>
+        <v>51340</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1505,10 +1537,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>27400</v>
+        <v>50000</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1526,8 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>27400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1535,13 +1566,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>49300</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1556,8 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>22200</v>
+        <v>49300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1565,10 +1595,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>18200</v>
+        <v>46600</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1586,8 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>18200</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1595,10 +1624,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>17100</v>
+        <v>46200</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1616,8 +1645,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>17100</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1625,13 +1653,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1646,8 +1674,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1655,104 +1682,652 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>43000</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>40000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="C38">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>38900</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>37000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>36100</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>35800</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>35500</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>35000</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>33300</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>33000</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>32500</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>30500</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>28800</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>28500</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>28000</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>25000</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>22200</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>14500</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>13500</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57">
+        <v>10200</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>8800</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
         <v>3800</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>3800</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8475B-9359-4CA3-9F23-C074919B76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA75A4-ABCB-4C9D-9648-8D35147736B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Quan</t>
   </si>
   <si>
-    <t>Owen Moxham</t>
-  </si>
-  <si>
     <t>Uvindu De Alwis</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Aaryan Kochhar</t>
   </si>
   <si>
-    <t>Ben McFall</t>
-  </si>
-  <si>
     <t>Hugh Roberts</t>
   </si>
   <si>
@@ -237,6 +231,42 @@
   </si>
   <si>
     <t>Ryan Tashiro</t>
+  </si>
+  <si>
+    <t>Tony Liu</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Arihant Rawal</t>
+  </si>
+  <si>
+    <t>Jay Timothy Wang</t>
+  </si>
+  <si>
+    <t>Natty Ayano</t>
+  </si>
+  <si>
+    <t>Ryan Kin</t>
+  </si>
+  <si>
+    <t>Shakhruz Rakhmatullaev</t>
+  </si>
+  <si>
+    <t>Akash Jayaprabalan</t>
+  </si>
+  <si>
+    <t>Sparsh Basantani</t>
+  </si>
+  <si>
+    <t>Tianhong Deng</t>
+  </si>
+  <si>
+    <t>jonathan pavlou</t>
+  </si>
+  <si>
+    <t>Mohit Garg</t>
   </si>
 </sst>
 </file>
@@ -588,7 +618,7 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>302100</v>
@@ -667,13 +697,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="D3">
-        <v>298700</v>
+        <v>298500</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -688,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>298700</v>
+        <v>314000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -696,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>109500</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>168700</v>
+        <v>298700</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -717,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>278200</v>
+        <v>298700</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -725,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>74800</v>
+        <v>109500</v>
       </c>
       <c r="D5">
-        <v>156000</v>
+        <v>168700</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -746,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>215800</v>
+        <v>278200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -754,16 +784,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>71000</v>
+        <v>80300</v>
       </c>
       <c r="D6">
-        <v>81400</v>
+        <v>9000</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -775,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>152400</v>
+        <v>269300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -783,13 +813,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>147800</v>
+        <v>74800</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -804,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>147800</v>
+        <v>215800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -812,16 +842,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16200</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -833,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>136200</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -841,16 +871,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>109800</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>120700</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -862,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>109800</v>
+        <v>172700</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -870,13 +900,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>100700</v>
+        <v>109800</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>61100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -891,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>100700</v>
+        <v>170900</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -899,16 +929,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>89300</v>
+        <v>120000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -920,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>89300</v>
+        <v>160700</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -928,13 +958,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C12">
-        <v>80300</v>
+        <v>71000</v>
       </c>
       <c r="D12">
-        <v>9000</v>
+        <v>81400</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -949,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>89300</v>
+        <v>152400</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -957,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>87500</v>
+        <v>147800</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -978,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>87500</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -986,16 +1016,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>83600</v>
+        <v>89800</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>54100</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1007,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83600</v>
+        <v>143900</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1015,16 +1045,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>81800</v>
+        <v>64500</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>54100</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1036,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>81800</v>
+        <v>126100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1044,16 +1074,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>17100</v>
+        <v>51340</v>
       </c>
       <c r="D16">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1065,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80600</v>
+        <v>123340</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1073,16 +1103,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>78000</v>
+        <v>27400</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>35300</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1094,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78000</v>
+        <v>110700</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1102,13 +1132,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>27400</v>
+        <v>100700</v>
       </c>
       <c r="D18">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1123,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>75400</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1131,16 +1161,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C19">
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>95800</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1152,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>72800</v>
+        <v>95800</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1160,13 +1190,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>89300</v>
       </c>
       <c r="D20">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1181,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>72000</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1189,13 +1219,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>64500</v>
+        <v>87500</v>
       </c>
       <c r="D21">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1210,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>72000</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1218,13 +1248,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>66100</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1239,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>66100</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1247,10 +1277,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>63800</v>
+        <v>81800</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1268,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>63800</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1276,13 +1306,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="D24">
-        <v>55500</v>
+        <v>63500</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1297,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>55500</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1305,16 +1335,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1326,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55200</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1334,10 +1364,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>54400</v>
+        <v>78000</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1355,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>54400</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1363,13 +1393,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>72800</v>
       </c>
       <c r="D27">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1384,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>54000</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1392,13 +1422,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>54000</v>
+        <v>72000</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1413,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>54000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1421,13 +1451,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>66100</v>
       </c>
       <c r="D29">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1442,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>52000</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1450,13 +1480,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>51700</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>64800</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1471,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>51700</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1479,10 +1509,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C31">
-        <v>51400</v>
+        <v>63800</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1500,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>51400</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1508,13 +1538,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C32">
-        <v>51340</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1529,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>51340</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1537,10 +1567,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>50000</v>
+        <v>54400</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1558,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>50000</v>
+        <v>54400</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1566,13 +1596,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>49300</v>
+        <v>54000</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1587,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>49300</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1595,10 +1625,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>46600</v>
+        <v>51700</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1616,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>46600</v>
+        <v>51700</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1624,10 +1654,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>46200</v>
+        <v>51400</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1645,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>46200</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1653,16 +1683,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>43400</v>
+        <v>32500</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1674,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>43400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1682,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1703,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>43000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1711,16 +1741,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C39">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>40000</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1740,13 +1770,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>38900</v>
+        <v>49300</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1761,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>38900</v>
+        <v>49300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1769,10 +1799,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C41">
-        <v>37000</v>
+        <v>46600</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1790,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>37000</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1798,10 +1828,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>36100</v>
+        <v>46200</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1819,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>36100</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1827,16 +1857,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C43">
-        <v>35800</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1848,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>35800</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1856,13 +1886,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>35500</v>
+        <v>43400</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1877,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>35500</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1885,10 +1915,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1906,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>35000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1914,13 +1944,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>33300</v>
+        <v>18200</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1935,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>33300</v>
+        <v>40200</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1943,13 +1973,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D47">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1964,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>33000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1972,13 +2002,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>32500</v>
+        <v>38900</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1993,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>32500</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2001,16 +2031,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2022,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>30500</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2030,10 +2060,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>28800</v>
+        <v>37000</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2051,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>28800</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2059,13 +2089,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="D51">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2080,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>28500</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2088,13 +2118,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="D52">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2109,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>28000</v>
+        <v>35800</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2117,13 +2147,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>25000</v>
+        <v>35500</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2138,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>25000</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2146,10 +2176,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>22200</v>
+        <v>35000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2167,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>22200</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2175,10 +2205,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>14500</v>
+        <v>33300</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2196,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>14500</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2204,13 +2234,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>13500</v>
+        <v>33000</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2225,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>13500</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2233,16 +2263,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C57">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2254,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>10200</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2262,13 +2292,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D58">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2283,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>8800</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2291,91 +2321,351 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>28500</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>28000</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>25400</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>25000</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>22200</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>22000</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>14500</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>13500</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>10200</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>8800</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="C59">
+      <c r="C69">
         <v>3800</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>3800</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA75A4-ABCB-4C9D-9648-8D35147736B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDFE900-A8A5-F34C-9141-4F6B2BC7719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3100" windowWidth="30240" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$L$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Jamie Kukuruzovic</t>
   </si>
   <si>
-    <t>Achal Jhawar</t>
-  </si>
-  <si>
     <t>Gordon Wu</t>
   </si>
   <si>
@@ -236,30 +233,18 @@
     <t>Tony Liu</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>Arihant Rawal</t>
   </si>
   <si>
     <t>Jay Timothy Wang</t>
   </si>
   <si>
-    <t>Natty Ayano</t>
-  </si>
-  <si>
-    <t>Ryan Kin</t>
-  </si>
-  <si>
     <t>Shakhruz Rakhmatullaev</t>
   </si>
   <si>
     <t>Akash Jayaprabalan</t>
   </si>
   <si>
-    <t>Sparsh Basantani</t>
-  </si>
-  <si>
     <t>Tianhong Deng</t>
   </si>
   <si>
@@ -267,6 +252,9 @@
   </si>
   <si>
     <t>Mohit Garg</t>
+  </si>
+  <si>
+    <t>Zarif Syed</t>
   </si>
 </sst>
 </file>
@@ -617,24 +605,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,24 +651,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>302100</v>
+        <v>80300</v>
       </c>
       <c r="D2">
-        <v>53700</v>
+        <v>9000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>109000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -689,21 +677,21 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>355800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>378300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>30500</v>
+        <v>302100</v>
       </c>
       <c r="D3">
-        <v>298500</v>
+        <v>53700</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -718,21 +706,21 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>314000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>355800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="D4">
-        <v>298700</v>
+        <v>298500</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -747,27 +735,27 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>298700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>314000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>109500</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>168700</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -776,27 +764,27 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>278200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>80300</v>
+        <v>109500</v>
       </c>
       <c r="D6">
-        <v>9000</v>
+        <v>168700</v>
       </c>
       <c r="E6">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -805,21 +793,21 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>269300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>303200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>74800</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>156000</v>
+        <v>298700</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -834,27 +822,27 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>215800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>298700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="E8">
-        <v>200000</v>
+        <v>120700</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>103500</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -863,27 +851,27 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>276200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>87500</v>
       </c>
       <c r="D9">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>120700</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>181200</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -892,27 +880,27 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>172700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>268700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>109800</v>
+        <v>100700</v>
       </c>
       <c r="D10">
-        <v>61100</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>163000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -921,27 +909,27 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>170900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>263700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>120000</v>
+        <v>64500</v>
       </c>
       <c r="D11">
-        <v>16200</v>
+        <v>22500</v>
       </c>
       <c r="E11">
-        <v>24500</v>
+        <v>54100</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>98100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -950,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>160700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>224200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>71000</v>
+        <v>74800</v>
       </c>
       <c r="D12">
-        <v>81400</v>
+        <v>156000</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -979,21 +967,21 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>152400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>215800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>147800</v>
+        <v>109800</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>61100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1008,27 +996,27 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>147800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>170900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>89800</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>54100</v>
+        <v>44000</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1037,24 +1025,24 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>143900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>64500</v>
+        <v>120000</v>
       </c>
       <c r="D15">
-        <v>37500</v>
+        <v>16200</v>
       </c>
       <c r="E15">
-        <v>54100</v>
+        <v>24500</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1066,27 +1054,27 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>126100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>160700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>51340</v>
+        <v>18200</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="E16">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1095,24 +1083,24 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>123340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>160200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>27400</v>
+        <v>147800</v>
       </c>
       <c r="D17">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>35300</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1124,24 +1112,24 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>110700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>147800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>100700</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>89800</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>54100</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1153,24 +1141,24 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>143900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>51340</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>95800</v>
+        <v>72000</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1182,24 +1170,24 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>95800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>123340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>89300</v>
+        <v>27400</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>35300</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1211,24 +1199,24 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>89300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>110700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>87500</v>
+        <v>10200</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>97900</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1240,24 +1228,24 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>87500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>108100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>83600</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>95800</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1269,18 +1257,18 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>83600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>95800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>81800</v>
+        <v>89300</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1298,27 +1286,27 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>81800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>89300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>62400</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1327,24 +1315,24 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>80600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>84400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="E25">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1356,18 +1344,18 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>78000</v>
+        <v>81800</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1385,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>81800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>72800</v>
+        <v>17100</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>63500</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1414,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>72800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D28">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1443,18 +1431,18 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>66100</v>
+        <v>72800</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1472,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>66100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>64800</v>
+        <v>72000</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1501,18 +1489,18 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>63800</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1521,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>85400</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1530,27 +1518,27 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>63800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>55500</v>
+        <v>28000</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1559,18 +1547,18 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>55500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>54400</v>
+        <v>66100</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1588,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>54400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>66100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>63800</v>
       </c>
       <c r="D34">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1617,27 +1605,27 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C35">
-        <v>51700</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1646,27 +1634,27 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>51700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>61300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C36">
-        <v>51400</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>28500</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1675,24 +1663,24 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>51400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>32500</v>
+        <v>55500</v>
       </c>
       <c r="E37">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1704,18 +1692,18 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>50000</v>
+        <v>54400</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1733,24 +1721,24 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>51700</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>49800</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1762,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>49800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>51400</v>
       </c>
       <c r="D40">
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1791,18 +1779,18 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>49300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>46600</v>
+        <v>50000</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1820,24 +1808,24 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>46600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C42">
-        <v>46200</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1849,24 +1837,24 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>49300</v>
       </c>
       <c r="E43">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1878,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>46600</v>
       </c>
       <c r="D44">
-        <v>43400</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1907,18 +1895,18 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>43000</v>
+        <v>46200</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1936,24 +1924,24 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C46">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1965,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>40200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C47">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1994,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="D48">
-        <v>38900</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2023,24 +2011,24 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>38900</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2052,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2081,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>36100</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>38900</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2110,18 +2098,18 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>36100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>35800</v>
+        <v>37000</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2139,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>35800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="D53">
-        <v>35500</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2168,18 +2156,18 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>35500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2197,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2226,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>33300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D56">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2255,24 +2243,24 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>33300</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2284,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2316,21 +2304,21 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2342,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2356,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2371,24 +2359,24 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>25400</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2400,21 +2388,21 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="D62">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2429,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2458,24 +2446,24 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>22200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2487,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2519,12 +2507,12 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2548,7 +2536,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2577,12 +2565,12 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2606,7 +2594,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2635,184 +2623,184 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
   </sheetData>

--- a/public/res/leaderboards/Advanced.xlsx
+++ b/public/res/leaderboards/Advanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\Downloads\code\qts\poker-tournament-leaderboard-2025sem2\poker-tournament-leaderboard\public\res\leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA75A4-ABCB-4C9D-9648-8D35147736B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FFD5D-75D9-4356-A690-982A3AE3FFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$L$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -212,61 +212,49 @@
     <t>Jamie Kukuruzovic</t>
   </si>
   <si>
-    <t>Achal Jhawar</t>
-  </si>
-  <si>
     <t>Gordon Wu</t>
   </si>
   <si>
-    <t>Jeffrey Liu</t>
-  </si>
-  <si>
     <t>Kyle Le</t>
   </si>
   <si>
     <t>Bryan Chang</t>
   </si>
   <si>
-    <t>Michael Tran</t>
-  </si>
-  <si>
-    <t>Ryan Tashiro</t>
-  </si>
-  <si>
     <t>Tony Liu</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>Arihant Rawal</t>
   </si>
   <si>
     <t>Jay Timothy Wang</t>
   </si>
   <si>
-    <t>Natty Ayano</t>
-  </si>
-  <si>
-    <t>Ryan Kin</t>
-  </si>
-  <si>
     <t>Shakhruz Rakhmatullaev</t>
   </si>
   <si>
     <t>Akash Jayaprabalan</t>
   </si>
   <si>
-    <t>Sparsh Basantani</t>
-  </si>
-  <si>
-    <t>Tianhong Deng</t>
-  </si>
-  <si>
     <t>jonathan pavlou</t>
   </si>
   <si>
     <t>Mohit Garg</t>
+  </si>
+  <si>
+    <t>ryan tashiro</t>
+  </si>
+  <si>
+    <t>Jacky Chan</t>
+  </si>
+  <si>
+    <t>Hayden Ma</t>
+  </si>
+  <si>
+    <t>Zarif Syed</t>
+  </si>
+  <si>
+    <t>Vincent Ngo</t>
   </si>
 </sst>
 </file>
@@ -618,7 +606,7 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,28 +656,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>302100</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>53700</v>
+        <v>52000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>120700</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>103500</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>223000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>355800</v>
+        <v>499200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -697,19 +685,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>30500</v>
+        <v>80300</v>
       </c>
       <c r="D3">
-        <v>298500</v>
+        <v>9000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>109000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -718,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>314000</v>
+        <v>378300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -726,28 +714,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>64500</v>
       </c>
       <c r="D4">
-        <v>298700</v>
+        <v>22500</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>54100</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>98100</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>298700</v>
+        <v>358950</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -755,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>109500</v>
+        <v>302100</v>
       </c>
       <c r="D5">
-        <v>168700</v>
+        <v>53700</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -776,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>278200</v>
+        <v>355800</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -784,28 +772,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>80300</v>
+        <v>100700</v>
       </c>
       <c r="D6">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>163000</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>269300</v>
+        <v>353700</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -813,28 +801,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>74800</v>
+        <v>87500</v>
       </c>
       <c r="D7">
-        <v>156000</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>181200</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>215800</v>
+        <v>331400</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -842,16 +830,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>298500</v>
       </c>
       <c r="E8">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -863,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>200000</v>
+        <v>314000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -871,19 +859,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>120700</v>
+        <v>200000</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>112000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -892,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>172700</v>
+        <v>312000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -900,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>109800</v>
+        <v>109500</v>
       </c>
       <c r="D10">
-        <v>61100</v>
+        <v>168700</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -921,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>170900</v>
+        <v>303200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -929,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>16200</v>
+        <v>298700</v>
       </c>
       <c r="E11">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -950,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>160700</v>
+        <v>298700</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -958,28 +946,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>81400</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>152400</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -987,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>147800</v>
+        <v>74800</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1008,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>147800</v>
+        <v>215800</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1016,19 +1004,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>89800</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>54100</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>200100</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1037,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>143900</v>
+        <v>200100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1045,28 +1033,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>64500</v>
+        <v>18200</v>
       </c>
       <c r="D15">
-        <v>37500</v>
+        <v>37000</v>
       </c>
       <c r="E15">
-        <v>54100</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>126100</v>
+        <v>185200</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1074,16 +1062,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>51340</v>
+        <v>109800</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>61100</v>
       </c>
       <c r="E16">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1095,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>123340</v>
+        <v>170900</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1103,28 +1091,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C17">
-        <v>27400</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>35300</v>
+        <v>44000</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>110700</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1132,16 +1120,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>100700</v>
+        <v>120000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1153,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100700</v>
+        <v>160700</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1161,16 +1149,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>147800</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>95800</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1182,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>95800</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1190,16 +1178,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>89300</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>89800</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>54100</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1211,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>89300</v>
+        <v>143900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1219,16 +1207,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>87500</v>
+        <v>51340</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1240,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>87500</v>
+        <v>123340</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1248,16 +1236,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="D22">
-        <v>83600</v>
+        <v>48000</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>35300</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1269,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>83600</v>
+        <v>110700</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1277,16 +1265,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>81800</v>
+        <v>10200</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>97900</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1298,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>81800</v>
+        <v>108100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1306,16 +1294,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>95800</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1327,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>80600</v>
+        <v>95800</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1335,16 +1323,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>89300</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1356,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>78000</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1364,19 +1352,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>62400</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1385,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>78000</v>
+        <v>84400</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1393,13 +1381,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>72800</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>83600</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1414,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>72800</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1422,13 +1410,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>81800</v>
       </c>
       <c r="D28">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1443,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>72000</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1451,13 +1439,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>66100</v>
+        <v>17100</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>63500</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1472,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>66100</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1480,13 +1468,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="D30">
-        <v>64800</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1501,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>64800</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1509,10 +1497,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>63800</v>
+        <v>72800</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1530,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>63800</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1538,13 +1526,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>55500</v>
+        <v>72000</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1559,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>55500</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1567,10 +1555,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C33">
-        <v>54400</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1579,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>85400</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1588,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>54400</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1596,13 +1584,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>66100</v>
       </c>
       <c r="D34">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1617,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>54000</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1625,10 +1613,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C35">
-        <v>51700</v>
+        <v>63800</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1646,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>51700</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1654,19 +1642,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>51400</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1675,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>51400</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1689,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>32500</v>
+        <v>28500</v>
       </c>
       <c r="E37">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1704,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>50000</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1712,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1733,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>50000</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1741,16 +1729,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>54400</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>49800</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1762,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>49800</v>
+        <v>54400</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1770,13 +1758,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>51700</v>
       </c>
       <c r="D40">
-        <v>49300</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1791,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>49300</v>
+        <v>51700</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1799,10 +1787,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>46600</v>
+        <v>51400</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1820,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>46600</v>
+        <v>51400</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1828,10 +1816,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>46200</v>
+        <v>50000</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1849,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>46200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1857,7 +1845,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1866,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>44000</v>
+        <v>49800</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1878,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>44000</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1886,13 +1874,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>43400</v>
+        <v>49300</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1907,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>43400</v>
+        <v>49300</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1915,10 +1903,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>43000</v>
+        <v>46600</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1936,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>43000</v>
+        <v>46600</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1944,13 +1932,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>18200</v>
+        <v>46200</v>
       </c>
       <c r="D46">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1965,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>40200</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1973,13 +1961,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C47">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1994,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>40000</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2002,13 +1990,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="D48">
-        <v>38900</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2023,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>38900</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2031,16 +2019,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2052,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>37500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2060,13 +2048,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>54000</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2075,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>37000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2089,13 +2077,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>36100</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>38900</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2110,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>36100</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2118,10 +2106,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>35800</v>
+        <v>37000</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2139,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>35800</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2147,13 +2135,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="D53">
-        <v>35500</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2168,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>35500</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2176,10 +2164,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2197,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>35000</v>
+        <v>35800</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2205,13 +2193,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2226,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>33300</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2234,13 +2222,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D56">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2255,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>33000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2263,16 +2251,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>33300</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2284,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>29000</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2292,10 +2280,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C58">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2304,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2313,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>28800</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2321,13 +2309,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="D59">
-        <v>28500</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2342,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>28500</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2350,16 +2338,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2371,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>28000</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2379,16 +2367,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E61">
-        <v>25400</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2400,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>25400</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2408,13 +2396,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="D62">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2429,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>25000</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2437,10 +2425,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>22200</v>
+        <v>14500</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2458,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>22200</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2466,16 +2454,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E64">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2487,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>22000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2495,10 +2483,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C65">
-        <v>14500</v>
+        <v>3800</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2516,124 +2504,20 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>14500</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>13500</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>13500</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67">
-        <v>10200</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>10200</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>8800</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>8800</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69">
-        <v>3800</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>3800</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
